--- a/Python.xlsx
+++ b/Python.xlsx
@@ -8,12 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{396B1F02-6488-402A-A6D0-42DC3ECFEA07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD90258C-0B66-4CE2-BC17-9104809C78BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{570A2267-BD17-432D-9B9F-8D7ACBFD45E8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Python Programming" sheetId="1" r:id="rId1"/>
+    <sheet name="Data Cleaning" sheetId="6" r:id="rId2"/>
+    <sheet name="Visualisation" sheetId="3" r:id="rId3"/>
+    <sheet name="Machine Learning" sheetId="2" r:id="rId4"/>
+    <sheet name="Fintech" sheetId="4" r:id="rId5"/>
+    <sheet name="NLP" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="252">
   <si>
     <t>List</t>
   </si>
@@ -1108,13 +1113,145 @@
   </si>
   <si>
     <t>axes.set_title('Life',fontsize = 15)</t>
+  </si>
+  <si>
+    <t>df['First Name'].duplicated()</t>
+  </si>
+  <si>
+    <t>use shift + tab to see doc in jupyter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">df['First Name'].duplicated(keep = 'last') # default is keep = 'first' </t>
+  </si>
+  <si>
+    <t>df['First Name'].duplicated(keep = False)</t>
+  </si>
+  <si>
+    <t>~ &lt;--- to negate the boolean values</t>
+  </si>
+  <si>
+    <t>mask = ~df['First Name'].duplicated(keep = False) / df[mask] #unique values only</t>
+  </si>
+  <si>
+    <t>df.drop_duplicates(subset= 'First Name' , keep = 'first') #drop duplicates at first name column and keep the first of the duplicates</t>
+  </si>
+  <si>
+    <t>df.drop_duplicates(subset= 'First Name' , keep = False) #drop duplicates at first name column and don't keep any values that are duplicates , unique values only</t>
+  </si>
+  <si>
+    <t>df.drop_duplicates(subset= ['First Name' , 'Team']) # 2 Aarons but they are from different Teams</t>
+  </si>
+  <si>
+    <t>df['Gender'].unique()</t>
+  </si>
+  <si>
+    <t>len(df['Team'].unique()) # 11 unique items</t>
+  </si>
+  <si>
+    <t>df['Team'].nunique() # by default doesn't cound NaN or NULL values</t>
+  </si>
+  <si>
+    <t>df['Team'].nunique()</t>
+  </si>
+  <si>
+    <t>Seaborn</t>
+  </si>
+  <si>
+    <t>Plotly</t>
+  </si>
+  <si>
+    <t>Scikit-learn</t>
+  </si>
+  <si>
+    <t>Pytorch</t>
+  </si>
+  <si>
+    <t>Spacy</t>
+  </si>
+  <si>
+    <t>Bokeh</t>
+  </si>
+  <si>
+    <t>max(string1.split() , key=len)</t>
+  </si>
+  <si>
+    <t>int(str(num1)[::-1])</t>
+  </si>
+  <si>
+    <t>-int(str(-num1)[::-1])</t>
+  </si>
+  <si>
+    <t>len(string1.split()[-1])</t>
+  </si>
+  <si>
+    <t>[i for i, j in zip(a, b) if i == j] #similarities between 2 lists if order is impt</t>
+  </si>
+  <si>
+    <t>set(a) &amp; set(b)</t>
+  </si>
+  <si>
+    <t>set(a).intersection(b)</t>
+  </si>
+  <si>
+    <t>[x for x in a if x in b]</t>
+  </si>
+  <si>
+    <t>list(set(a).intersection(set(b)))</t>
+  </si>
+  <si>
+    <t>[i**2 if i &gt; 0 else i**3 for i in list1]</t>
+  </si>
+  <si>
+    <t>[i**2 for i in list1 if i &gt; 0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> l = [1, 2, 3, 4, 5]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ['yes' if v == 1 else 'no' if v == 2 else 'idle' for v in l]</t>
+  </si>
+  <si>
+    <t>set(list1) #unique items</t>
+  </si>
+  <si>
+    <t>unique=[i for i in list1 if list1.count(i)==1] #non-repeated items from list</t>
+  </si>
+  <si>
+    <t>list1.count(0)</t>
+  </si>
+  <si>
+    <t>df.all(axis=1)</t>
+  </si>
+  <si>
+    <t>df_zero_mask.iloc[ : , 1:].all(axis = 1) # 2nd column on wards across all the columns</t>
+  </si>
+  <si>
+    <t>df.replace()</t>
+  </si>
+  <si>
+    <t>df_clean_2['EDUCATION'].replace(to_replace=[0,5,6] , value=4 , inplace=True)</t>
+  </si>
+  <si>
+    <t>df_clean_2['EDUCATION_CAT'] = df_clean_2['EDUCATION'].map(cat_mapping) @map 1 column with another using a dict</t>
+  </si>
+  <si>
+    <t>pd.get_dummies()</t>
+  </si>
+  <si>
+    <t>edu_ohe = pd.get_dummies(df_clean_2['EDUCATION_CAT'])</t>
+  </si>
+  <si>
+    <t>pd.concat()</t>
+  </si>
+  <si>
+    <t>df_with_ohe = pd.concat([df_clean_2 , edu_ohe] , axis = 1)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1164,6 +1301,14 @@
       <color theme="1"/>
       <name val="Inherit"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1173,7 +1318,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1181,11 +1326,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1194,8 +1349,16 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1508,96 +1671,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79E9A589-AD7A-4E88-B929-890A4FD0CF44}">
-  <dimension ref="B1:H146"/>
+  <dimension ref="B2:F156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="D118" workbookViewId="0">
+      <selection activeCell="F132" sqref="F132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" customWidth="1"/>
-    <col min="4" max="4" width="43.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.140625" customWidth="1"/>
+    <col min="4" max="4" width="64.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="52.42578125" customWidth="1"/>
-    <col min="6" max="6" width="94.5703125" customWidth="1"/>
-    <col min="7" max="7" width="55.140625" customWidth="1"/>
-    <col min="8" max="8" width="54.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="117.7109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8">
-      <c r="G1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="2" spans="2:8">
-      <c r="B2" t="s">
+    <row r="2" spans="2:6" ht="20.25" thickBot="1">
+      <c r="B2" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="H2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8">
+    </row>
+    <row r="3" spans="2:6" ht="15.75" thickTop="1"/>
+    <row r="4" spans="2:6">
       <c r="D4" t="s">
         <v>55</v>
       </c>
       <c r="E4" t="s">
         <v>25</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G4" t="s">
-        <v>192</v>
-      </c>
-      <c r="H4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8">
+    </row>
+    <row r="5" spans="2:6">
       <c r="E5" t="s">
         <v>37</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="60">
+    <row r="6" spans="2:6" ht="60">
       <c r="E6" t="s">
         <v>33</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="2:8">
-      <c r="F7" t="s">
+    </row>
+    <row r="7" spans="2:6">
+      <c r="F7" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="H7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8">
-      <c r="H8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8">
+    </row>
+    <row r="9" spans="2:6">
       <c r="B9" t="s">
         <v>140</v>
       </c>
@@ -1610,17 +1749,14 @@
       <c r="E9" t="s">
         <v>190</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G9" t="s">
-        <v>193</v>
-      </c>
-      <c r="H9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8">
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" t="s">
+        <v>209</v>
+      </c>
       <c r="C10" t="s">
         <v>82</v>
       </c>
@@ -1630,17 +1766,11 @@
       <c r="E10" t="s">
         <v>27</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G10" t="s">
-        <v>194</v>
-      </c>
-      <c r="H10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8">
+    </row>
+    <row r="11" spans="2:6">
       <c r="C11" t="s">
         <v>84</v>
       </c>
@@ -1650,17 +1780,11 @@
       <c r="E11" t="s">
         <v>28</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G11" t="s">
-        <v>195</v>
-      </c>
-      <c r="H11" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8">
+    </row>
+    <row r="12" spans="2:6">
       <c r="C12" t="s">
         <v>83</v>
       </c>
@@ -1670,17 +1794,11 @@
       <c r="E12" t="s">
         <v>30</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G12" t="s">
-        <v>196</v>
-      </c>
-      <c r="H12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8">
+    </row>
+    <row r="13" spans="2:6">
       <c r="C13" t="s">
         <v>85</v>
       </c>
@@ -1690,14 +1808,11 @@
       <c r="E13" t="s">
         <v>31</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H13" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8">
+    </row>
+    <row r="14" spans="2:6">
       <c r="C14" t="s">
         <v>86</v>
       </c>
@@ -1707,17 +1822,11 @@
       <c r="E14" t="s">
         <v>32</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G14" t="s">
-        <v>197</v>
-      </c>
-      <c r="H14" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8">
+    </row>
+    <row r="15" spans="2:6">
       <c r="C15" t="s">
         <v>87</v>
       </c>
@@ -1727,717 +1836,810 @@
       <c r="E15" t="s">
         <v>52</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G15" t="s">
-        <v>198</v>
-      </c>
-      <c r="H15" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8">
+    </row>
+    <row r="16" spans="2:6">
       <c r="C16" t="s">
         <v>88</v>
       </c>
+      <c r="D16" t="s">
+        <v>240</v>
+      </c>
       <c r="E16" t="s">
         <v>53</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G16" t="s">
-        <v>199</v>
-      </c>
-      <c r="H16" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="17" spans="3:8">
+    </row>
+    <row r="17" spans="3:6">
       <c r="C17" t="s">
         <v>89</v>
       </c>
       <c r="D17" t="s">
-        <v>189</v>
+        <v>241</v>
       </c>
       <c r="E17" t="s">
         <v>54</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="18" spans="3:8">
+    </row>
+    <row r="18" spans="3:6">
       <c r="C18" t="s">
         <v>90</v>
       </c>
+      <c r="D18" t="s">
+        <v>242</v>
+      </c>
       <c r="E18" t="s">
         <v>51</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H18" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="19" spans="3:8">
+    </row>
+    <row r="19" spans="3:6">
       <c r="C19" t="s">
         <v>91</v>
       </c>
       <c r="E19" t="s">
         <v>34</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G19" t="s">
-        <v>201</v>
-      </c>
-      <c r="H19" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="3:8">
+    </row>
+    <row r="20" spans="3:6">
       <c r="C20" t="s">
         <v>92</v>
       </c>
-      <c r="D20" t="s">
-        <v>182</v>
-      </c>
       <c r="E20" t="s">
         <v>35</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="G20" t="s">
-        <v>202</v>
-      </c>
-      <c r="H20" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="21" spans="3:8">
+    </row>
+    <row r="21" spans="3:6">
       <c r="C21" t="s">
         <v>118</v>
       </c>
+      <c r="D21" t="s">
+        <v>189</v>
+      </c>
       <c r="E21" t="s">
         <v>36</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G21" t="s">
-        <v>203</v>
-      </c>
-      <c r="H21" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="22" spans="3:8">
-      <c r="D22" t="s">
-        <v>181</v>
+    </row>
+    <row r="22" spans="3:6">
+      <c r="C22" t="s">
+        <v>212</v>
       </c>
       <c r="E22" t="s">
         <v>39</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G22" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="23" spans="3:8">
+    </row>
+    <row r="23" spans="3:6">
       <c r="E23" t="s">
         <v>40</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="G23" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="24" spans="3:8">
-      <c r="D24" s="3" t="s">
-        <v>183</v>
+    </row>
+    <row r="24" spans="3:6">
+      <c r="D24" t="s">
+        <v>182</v>
       </c>
       <c r="E24" t="s">
         <v>42</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G24" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="25" spans="3:8">
-      <c r="D25" s="3" t="s">
-        <v>184</v>
-      </c>
+    </row>
+    <row r="25" spans="3:6">
       <c r="E25" t="s">
         <v>43</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G25" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="26" spans="3:8">
-      <c r="D26" s="3" t="s">
-        <v>185</v>
+    </row>
+    <row r="26" spans="3:6">
+      <c r="D26" t="s">
+        <v>181</v>
       </c>
       <c r="E26" t="s">
         <v>44</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="3:8">
-      <c r="D27" s="3" t="s">
-        <v>186</v>
+    <row r="27" spans="3:6">
+      <c r="D27" t="s">
+        <v>236</v>
       </c>
       <c r="E27" t="s">
         <v>45</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="3:8">
-      <c r="D28" s="3" t="s">
-        <v>187</v>
+    <row r="28" spans="3:6">
+      <c r="D28" t="s">
+        <v>237</v>
       </c>
       <c r="E28" t="s">
         <v>46</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="3:8">
-      <c r="D29" s="3" t="s">
-        <v>186</v>
+    <row r="29" spans="3:6">
+      <c r="C29" t="s">
+        <v>227</v>
       </c>
       <c r="E29" t="s">
         <v>47</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="3:8">
+    <row r="30" spans="3:6">
+      <c r="C30" t="s">
+        <v>189</v>
+      </c>
       <c r="D30" s="3" t="s">
-        <v>188</v>
+        <v>238</v>
       </c>
       <c r="E30" t="s">
         <v>48</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="3:8">
+    <row r="31" spans="3:6">
+      <c r="C31" t="s">
+        <v>228</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>239</v>
+      </c>
       <c r="E31" t="s">
         <v>49</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="32" spans="3:8">
+    <row r="32" spans="3:6">
+      <c r="C32" t="s">
+        <v>229</v>
+      </c>
       <c r="E32" t="s">
         <v>50</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="33" spans="5:6">
-      <c r="F33" t="s">
+    <row r="33" spans="3:6">
+      <c r="C33" t="s">
+        <v>230</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="5:6">
-      <c r="F34" t="s">
+    <row r="34" spans="3:6">
+      <c r="D34" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="35" spans="5:6">
-      <c r="F35" t="s">
+    <row r="35" spans="3:6">
+      <c r="D35" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="36" spans="5:6">
+    <row r="36" spans="3:6">
+      <c r="D36" s="3" t="s">
+        <v>185</v>
+      </c>
       <c r="E36" t="s">
         <v>29</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="37" spans="5:6">
+    <row r="37" spans="3:6">
+      <c r="D37" s="3" t="s">
+        <v>186</v>
+      </c>
       <c r="E37" t="s">
         <v>38</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="38" spans="5:6">
+    <row r="38" spans="3:6">
+      <c r="D38" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="E38" t="s">
         <v>41</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="39" spans="5:6">
-      <c r="F39" t="s">
+    <row r="39" spans="3:6">
+      <c r="D39" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="40" spans="5:6">
-      <c r="F40" t="s">
+    <row r="40" spans="3:6">
+      <c r="D40" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="41" spans="5:6">
-      <c r="F41" t="s">
+    <row r="41" spans="3:6">
+      <c r="F41" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="42" spans="5:6">
-      <c r="F42" t="s">
+    <row r="42" spans="3:6">
+      <c r="D42" t="s">
+        <v>231</v>
+      </c>
+      <c r="F42" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="43" spans="5:6">
-      <c r="F43" t="s">
+    <row r="43" spans="3:6">
+      <c r="D43" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="44" spans="5:6">
-      <c r="F44" t="s">
+    <row r="44" spans="3:6">
+      <c r="D44" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="45" spans="5:6">
-      <c r="F45" t="s">
+    <row r="45" spans="3:6">
+      <c r="D45" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F45" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="46" spans="5:6">
-      <c r="F46" t="s">
+    <row r="46" spans="3:6">
+      <c r="D46" t="s">
+        <v>233</v>
+      </c>
+      <c r="F46" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="47" spans="5:6">
-      <c r="F47" t="s">
+    <row r="47" spans="3:6">
+      <c r="D47" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F47" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="48" spans="5:6">
-      <c r="F48" t="s">
+    <row r="48" spans="3:6">
+      <c r="D48" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="F48" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="49" spans="6:7">
-      <c r="F49" t="s">
+    <row r="49" spans="4:6">
+      <c r="D49" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F49" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="50" spans="6:7">
-      <c r="F50" t="s">
+    <row r="50" spans="4:6">
+      <c r="D50" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="F50" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="51" spans="6:7">
-      <c r="F51" t="s">
+    <row r="51" spans="4:6">
+      <c r="F51" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="G51" s="2"/>
-    </row>
-    <row r="52" spans="6:7">
-      <c r="F52" s="2" t="s">
+    </row>
+    <row r="52" spans="4:6">
+      <c r="F52" s="4" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="53" spans="6:7">
-      <c r="F53" t="s">
+    <row r="53" spans="4:6">
+      <c r="F53" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="54" spans="6:7">
-      <c r="F54" t="s">
+    <row r="54" spans="4:6">
+      <c r="F54" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="55" spans="6:7">
-      <c r="F55" t="s">
+    <row r="55" spans="4:6">
+      <c r="F55" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="56" spans="6:7">
-      <c r="F56" t="s">
+    <row r="56" spans="4:6">
+      <c r="F56" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="57" spans="6:7">
-      <c r="F57" t="s">
+    <row r="57" spans="4:6">
+      <c r="F57" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="58" spans="6:7">
-      <c r="F58" t="s">
+    <row r="58" spans="4:6">
+      <c r="F58" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="59" spans="6:7">
-      <c r="F59" t="s">
+    <row r="59" spans="4:6">
+      <c r="F59" s="1" t="s">
         <v>176</v>
       </c>
     </row>
+    <row r="60" spans="4:6">
+      <c r="F60" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="61" spans="4:6">
+      <c r="F61" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="4:6">
+      <c r="F62" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="63" spans="4:6">
+      <c r="F63" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="64" spans="4:6">
+      <c r="F64" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="65" spans="6:6">
+      <c r="F65" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="66" spans="6:6">
+      <c r="F66" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="67" spans="6:6">
+      <c r="F67" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
     <row r="74" spans="6:6">
-      <c r="F74" t="s">
+      <c r="F74" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="75" spans="6:6">
-      <c r="F75" t="s">
+      <c r="F75" s="1" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="76" spans="6:6">
-      <c r="F76" t="s">
+      <c r="F76" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="77" spans="6:6">
-      <c r="F77" t="s">
+      <c r="F77" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="78" spans="6:6">
-      <c r="F78" t="s">
+      <c r="F78" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="79" spans="6:6">
-      <c r="F79" t="s">
+      <c r="F79" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="80" spans="6:6">
-      <c r="F80" t="s">
+      <c r="F80" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="81" spans="6:7">
-      <c r="F81" t="s">
+    <row r="81" spans="6:6">
+      <c r="F81" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="82" spans="6:7">
-      <c r="F82" t="s">
+    <row r="82" spans="6:6">
+      <c r="F82" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G82" s="2"/>
-    </row>
-    <row r="83" spans="6:7" ht="15.75">
-      <c r="F83" s="2" t="s">
+    </row>
+    <row r="83" spans="6:6" ht="15.75">
+      <c r="F83" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="84" spans="6:7">
-      <c r="F84" t="s">
+    <row r="84" spans="6:6">
+      <c r="F84" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="85" spans="6:7">
-      <c r="F85" t="s">
+    <row r="85" spans="6:6">
+      <c r="F85" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="86" spans="6:7">
-      <c r="F86" t="s">
+    <row r="86" spans="6:6">
+      <c r="F86" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="87" spans="6:7">
-      <c r="F87" t="s">
+    <row r="87" spans="6:6">
+      <c r="F87" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="88" spans="6:7">
-      <c r="F88" t="s">
+    <row r="88" spans="6:6">
+      <c r="F88" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="89" spans="6:7">
-      <c r="F89" t="s">
+    <row r="89" spans="6:6">
+      <c r="F89" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="90" spans="6:7">
-      <c r="F90" t="s">
+    <row r="90" spans="6:6">
+      <c r="F90" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="91" spans="6:7">
-      <c r="F91" t="s">
+    <row r="91" spans="6:6">
+      <c r="F91" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="92" spans="6:7">
-      <c r="F92" t="s">
+    <row r="92" spans="6:6">
+      <c r="F92" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="93" spans="6:7">
-      <c r="F93" t="s">
+    <row r="93" spans="6:6">
+      <c r="F93" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="94" spans="6:7">
-      <c r="F94" t="s">
+    <row r="94" spans="6:6">
+      <c r="F94" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="95" spans="6:7">
-      <c r="F95" t="s">
+    <row r="95" spans="6:6">
+      <c r="F95" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="96" spans="6:7">
-      <c r="F96" t="s">
+    <row r="96" spans="6:6">
+      <c r="F96" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="97" spans="6:7">
-      <c r="F97" t="s">
+    <row r="97" spans="6:6">
+      <c r="F97" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="98" spans="6:7">
-      <c r="F98" t="s">
+    <row r="98" spans="6:6">
+      <c r="F98" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="99" spans="6:7">
-      <c r="F99" t="s">
+    <row r="99" spans="6:6">
+      <c r="F99" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="G99" s="2"/>
-    </row>
-    <row r="100" spans="6:7" ht="15.75">
-      <c r="F100" s="2" t="s">
+    </row>
+    <row r="100" spans="6:6" ht="15.75">
+      <c r="F100" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="G100" s="2"/>
-    </row>
-    <row r="101" spans="6:7" ht="15.75">
-      <c r="F101" s="2" t="s">
+    </row>
+    <row r="101" spans="6:6" ht="15.75">
+      <c r="F101" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="G101" s="2"/>
-    </row>
-    <row r="102" spans="6:7" ht="15.75">
-      <c r="F102" s="2" t="s">
+    </row>
+    <row r="102" spans="6:6" ht="15.75">
+      <c r="F102" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="G102" s="2"/>
-    </row>
-    <row r="103" spans="6:7">
-      <c r="F103" s="2" t="s">
+    </row>
+    <row r="103" spans="6:6">
+      <c r="F103" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="G103" s="2"/>
-    </row>
-    <row r="104" spans="6:7">
-      <c r="F104" s="2" t="s">
+    </row>
+    <row r="104" spans="6:6">
+      <c r="F104" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="G104" s="2"/>
-    </row>
-    <row r="105" spans="6:7">
-      <c r="F105" s="2" t="s">
+    </row>
+    <row r="105" spans="6:6">
+      <c r="F105" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="G105" s="2"/>
-    </row>
-    <row r="106" spans="6:7">
-      <c r="F106" s="2" t="s">
+    </row>
+    <row r="106" spans="6:6">
+      <c r="F106" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="G106" s="2"/>
-    </row>
-    <row r="107" spans="6:7">
-      <c r="F107" s="2" t="s">
+    </row>
+    <row r="107" spans="6:6">
+      <c r="F107" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="G107" s="2"/>
-    </row>
-    <row r="108" spans="6:7">
-      <c r="F108" s="2" t="s">
+    </row>
+    <row r="108" spans="6:6">
+      <c r="F108" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="G108" s="2"/>
-    </row>
-    <row r="109" spans="6:7">
-      <c r="F109" s="2" t="s">
+    </row>
+    <row r="109" spans="6:6">
+      <c r="F109" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="G109" s="2"/>
-    </row>
-    <row r="110" spans="6:7">
-      <c r="F110" s="2" t="s">
+    </row>
+    <row r="110" spans="6:6">
+      <c r="F110" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="G110" s="2"/>
-    </row>
-    <row r="111" spans="6:7">
-      <c r="F111" s="2" t="s">
+    </row>
+    <row r="111" spans="6:6">
+      <c r="F111" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="G111" s="2"/>
-    </row>
-    <row r="112" spans="6:7">
-      <c r="F112" s="2" t="s">
+    </row>
+    <row r="112" spans="6:6">
+      <c r="F112" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="G112" s="2"/>
-    </row>
-    <row r="113" spans="6:7">
-      <c r="F113" s="2" t="s">
+    </row>
+    <row r="113" spans="5:6">
+      <c r="F113" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="G113" s="2"/>
-    </row>
-    <row r="114" spans="6:7">
-      <c r="F114" s="2" t="s">
+    </row>
+    <row r="114" spans="5:6">
+      <c r="F114" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="115" spans="5:6">
+      <c r="F115" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="116" spans="5:6">
+      <c r="F116" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="G114" s="2"/>
-    </row>
-    <row r="115" spans="6:7">
-      <c r="F115" s="2" t="s">
+    </row>
+    <row r="117" spans="5:6">
+      <c r="F117" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="G115" s="2"/>
-    </row>
-    <row r="116" spans="6:7">
-      <c r="F116" s="2" t="s">
+    </row>
+    <row r="118" spans="5:6">
+      <c r="F118" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="G116" s="2"/>
-    </row>
-    <row r="117" spans="6:7">
-      <c r="F117" s="2" t="s">
+    </row>
+    <row r="119" spans="5:6">
+      <c r="F119" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="G117" s="2"/>
-    </row>
-    <row r="118" spans="6:7">
-      <c r="F118" s="2"/>
-      <c r="G118" s="2"/>
-    </row>
-    <row r="119" spans="6:7">
-      <c r="F119" s="2"/>
-      <c r="G119" s="2"/>
-    </row>
-    <row r="120" spans="6:7">
-      <c r="F120" s="2"/>
-      <c r="G120" s="2"/>
-    </row>
-    <row r="121" spans="6:7">
-      <c r="F121" s="2"/>
-      <c r="G121" s="2"/>
-    </row>
-    <row r="122" spans="6:7">
-      <c r="F122" s="2"/>
-      <c r="G122" s="2"/>
-    </row>
-    <row r="123" spans="6:7">
-      <c r="F123" s="2"/>
-    </row>
-    <row r="128" spans="6:7">
-      <c r="F128" t="s">
+    </row>
+    <row r="120" spans="5:6">
+      <c r="F120" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="121" spans="5:6">
+      <c r="E121" s="2"/>
+      <c r="F121" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="122" spans="5:6">
+      <c r="F122" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="123" spans="5:6">
+      <c r="F123" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="124" spans="5:6" ht="30">
+      <c r="F124" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="125" spans="5:6">
+      <c r="F125" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="126" spans="5:6">
+      <c r="F126" s="4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="127" spans="5:6">
+      <c r="F127" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="128" spans="5:6">
+      <c r="F128" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="129" spans="6:6">
+      <c r="F129" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="130" spans="6:6" ht="30">
+      <c r="F130" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="131" spans="6:6">
+      <c r="F131" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="132" spans="6:6">
+      <c r="F132" s="4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="133" spans="6:6">
+      <c r="F133" s="4"/>
+    </row>
+    <row r="138" spans="6:6">
+      <c r="F138" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="6:6">
-      <c r="F129" t="s">
+    <row r="139" spans="6:6">
+      <c r="F139" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="6:6">
-      <c r="F130" t="s">
+    <row r="140" spans="6:6">
+      <c r="F140" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="6:6">
-      <c r="F131" t="s">
+    <row r="141" spans="6:6">
+      <c r="F141" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="6:6">
-      <c r="F132" t="s">
+    <row r="142" spans="6:6">
+      <c r="F142" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="6:6">
-      <c r="F133" t="s">
+    <row r="143" spans="6:6">
+      <c r="F143" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="6:6">
-      <c r="F134" t="s">
+    <row r="144" spans="6:6">
+      <c r="F144" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="136" spans="6:6">
-      <c r="F136" t="s">
+    <row r="146" spans="6:6">
+      <c r="F146" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="138" spans="6:6">
-      <c r="F138" t="s">
+    <row r="148" spans="6:6">
+      <c r="F148" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="141" spans="6:6">
-      <c r="F141" t="s">
+    <row r="151" spans="6:6">
+      <c r="F151" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="142" spans="6:6">
-      <c r="F142" t="s">
+    <row r="152" spans="6:6">
+      <c r="F152" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="143" spans="6:6">
-      <c r="F143" t="s">
+    <row r="153" spans="6:6">
+      <c r="F153" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="145" spans="6:6">
-      <c r="F145" t="s">
+    <row r="155" spans="6:6">
+      <c r="F155" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="146" spans="6:6">
-      <c r="F146" t="s">
+    <row r="156" spans="6:6">
+      <c r="F156" s="1" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2445,4 +2647,368 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3855EA0-DC9D-4DA0-A79D-468A9B802C64}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8807BCAA-CD11-417E-B2D4-30513A7D4983}">
+  <dimension ref="B2:E122"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="43.7109375" customWidth="1"/>
+    <col min="3" max="3" width="28" customWidth="1"/>
+    <col min="4" max="4" width="28.42578125" customWidth="1"/>
+    <col min="5" max="5" width="36" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" ht="20.25" thickBot="1">
+      <c r="B2" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="15.75" thickTop="1"/>
+    <row r="4" spans="2:5">
+      <c r="B4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="1"/>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" s="2"/>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" s="2"/>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99" s="2"/>
+    </row>
+    <row r="100" spans="2:2">
+      <c r="B100" s="2"/>
+    </row>
+    <row r="101" spans="2:2">
+      <c r="B101" s="2"/>
+    </row>
+    <row r="102" spans="2:2">
+      <c r="B102" s="2"/>
+    </row>
+    <row r="103" spans="2:2">
+      <c r="B103" s="2"/>
+    </row>
+    <row r="104" spans="2:2">
+      <c r="B104" s="2"/>
+    </row>
+    <row r="105" spans="2:2">
+      <c r="B105" s="2"/>
+    </row>
+    <row r="106" spans="2:2">
+      <c r="B106" s="2"/>
+    </row>
+    <row r="107" spans="2:2">
+      <c r="B107" s="2"/>
+    </row>
+    <row r="108" spans="2:2">
+      <c r="B108" s="2"/>
+    </row>
+    <row r="109" spans="2:2">
+      <c r="B109" s="2"/>
+    </row>
+    <row r="110" spans="2:2">
+      <c r="B110" s="2"/>
+    </row>
+    <row r="111" spans="2:2">
+      <c r="B111" s="2"/>
+    </row>
+    <row r="112" spans="2:2">
+      <c r="B112" s="2"/>
+    </row>
+    <row r="113" spans="2:2">
+      <c r="B113" s="2"/>
+    </row>
+    <row r="114" spans="2:2">
+      <c r="B114" s="2"/>
+    </row>
+    <row r="115" spans="2:2">
+      <c r="B115" s="2"/>
+    </row>
+    <row r="116" spans="2:2">
+      <c r="B116" s="2"/>
+    </row>
+    <row r="117" spans="2:2">
+      <c r="B117" s="2"/>
+    </row>
+    <row r="118" spans="2:2">
+      <c r="B118" s="2"/>
+    </row>
+    <row r="119" spans="2:2">
+      <c r="B119" s="2"/>
+    </row>
+    <row r="120" spans="2:2">
+      <c r="B120" s="2"/>
+    </row>
+    <row r="121" spans="2:2">
+      <c r="B121" s="2"/>
+    </row>
+    <row r="122" spans="2:2">
+      <c r="B122" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65408CBA-F719-4384-9761-BC7C35558BAF}">
+  <dimension ref="B2:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="29.5703125" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" ht="20.25" thickBot="1">
+      <c r="B2" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="15.75" thickTop="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93956EA2-477E-4846-8BA8-A19A7B4BF40D}">
+  <dimension ref="B2:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="54.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" ht="20.25" thickBot="1">
+      <c r="B2" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" ht="15.75" thickTop="1"/>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E96AF171-92C7-4E76-8196-8C5772FF6093}">
+  <dimension ref="B2:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="2:3" ht="20.25" thickBot="1">
+      <c r="B2" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="15.75" thickTop="1"/>
+    <row r="6" spans="2:3" ht="20.25" thickBot="1">
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="2:3" ht="15.75" thickTop="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Python.xlsx
+++ b/Python.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD90258C-0B66-4CE2-BC17-9104809C78BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1386D88C-FD4E-4555-BC97-EB66D6A38F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{570A2267-BD17-432D-9B9F-8D7ACBFD45E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Python Programming" sheetId="1" r:id="rId1"/>
     <sheet name="Data Cleaning" sheetId="6" r:id="rId2"/>
-    <sheet name="Visualisation" sheetId="3" r:id="rId3"/>
-    <sheet name="Machine Learning" sheetId="2" r:id="rId4"/>
-    <sheet name="Fintech" sheetId="4" r:id="rId5"/>
-    <sheet name="NLP" sheetId="5" r:id="rId6"/>
+    <sheet name="Scientific Computing" sheetId="7" r:id="rId3"/>
+    <sheet name="Visualisation" sheetId="3" r:id="rId4"/>
+    <sheet name="Machine Learning" sheetId="2" r:id="rId5"/>
+    <sheet name="Fintech" sheetId="4" r:id="rId6"/>
+    <sheet name="NLP" sheetId="5" r:id="rId7"/>
+    <sheet name="AI" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="377">
   <si>
     <t>List</t>
   </si>
@@ -1245,13 +1247,388 @@
   </si>
   <si>
     <t>df_with_ohe = pd.concat([df_clean_2 , edu_ohe] , axis = 1)</t>
+  </si>
+  <si>
+    <t>df[pay_feats[0]].value_counts().sort_index()</t>
+  </si>
+  <si>
+    <t>df.agg()</t>
+  </si>
+  <si>
+    <t>df[pay_feats[0]].hist()</t>
+  </si>
+  <si>
+    <t>df.hist()</t>
+  </si>
+  <si>
+    <t>df.apply()</t>
+  </si>
+  <si>
+    <t>df.merge()</t>
+  </si>
+  <si>
+    <t>Probability</t>
+  </si>
+  <si>
+    <t>Statistics</t>
+  </si>
+  <si>
+    <t>Split-Apply-Combine</t>
+  </si>
+  <si>
+    <t>One Hot Encoding (OHE)</t>
+  </si>
+  <si>
+    <t>split using groupby()</t>
+  </si>
+  <si>
+    <t>apply()</t>
+  </si>
+  <si>
+    <t>then combine or aggregate values with methods like sum()</t>
+  </si>
+  <si>
+    <t>Split-apply-combine is a common data analysis pattern</t>
+  </si>
+  <si>
+    <t>1. Split: Break a big problem into manageable pieces.</t>
+  </si>
+  <si>
+    <t>2. Apply: operate on each piece independently.</t>
+  </si>
+  <si>
+    <t>3. Combine: stick pieces back together.</t>
+  </si>
+  <si>
+    <t>np.dot()</t>
+  </si>
+  <si>
+    <t>lambda</t>
+  </si>
+  <si>
+    <t>filter()</t>
+  </si>
+  <si>
+    <t>df.groups()</t>
+  </si>
+  <si>
+    <t>df.get_groups()</t>
+  </si>
+  <si>
+    <t>data_by_prizetype.groups</t>
+  </si>
+  <si>
+    <t>data_by_prizetype.get_group('2nd').head()</t>
+  </si>
+  <si>
+    <t>data_by_prizetype = data.groupby(['prize_type']) # groupby() function is used to split the data into groups based on some criteria</t>
+  </si>
+  <si>
+    <t>df.groupby()  # groupby() function is used to split the data into groups based on some criteria</t>
+  </si>
+  <si>
+    <t>reset_index()</t>
+  </si>
+  <si>
+    <t>data_by_prizetype[['number']].mean().reset_index()</t>
+  </si>
+  <si>
+    <t>data.groupby('prize_type' , as_index= False)[['number']].mean()</t>
+  </si>
+  <si>
+    <t>year_gpby.groups.keys() # get the groups in the pandas groupby</t>
+  </si>
+  <si>
+    <t>melt() #wide format to long format</t>
+  </si>
+  <si>
+    <t>df_melted = pd.melt(df , id_vars = 'country' , var_name = 'Year' , value_name= 'Life Expectancy' )</t>
+  </si>
+  <si>
+    <t>np.quantile()</t>
+  </si>
+  <si>
+    <t>np.quantile(data,q=0.75)</t>
+  </si>
+  <si>
+    <t>np.median()</t>
+  </si>
+  <si>
+    <t>np.median(data)</t>
+  </si>
+  <si>
+    <t>%matplotlib inline</t>
+  </si>
+  <si>
+    <t>x = range(0,9)</t>
+  </si>
+  <si>
+    <t>y = (25,33,41,53,59,70,78,86,98)</t>
+  </si>
+  <si>
+    <t>#plot the x and y individual points</t>
+  </si>
+  <si>
+    <t>plt.scatter(x,y)</t>
+  </si>
+  <si>
+    <t># polyfit function fits the linear model z to the data points</t>
+  </si>
+  <si>
+    <t>z = np.polyfit(x,y,1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># poly1d functions creates the actual function used to display the data points  </t>
+  </si>
+  <si>
+    <t>p = np.poly1d(z)</t>
+  </si>
+  <si>
+    <t># x is x values. y is the result of formula where x = 0 , 1 , 2 and so on.</t>
+  </si>
+  <si>
+    <t># g- is green colour</t>
+  </si>
+  <si>
+    <t>plt.plot(x,p(x) , 'g-')</t>
+  </si>
+  <si>
+    <t>plt.show()</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># to get the result of the y = mx + b </t>
+  </si>
+  <si>
+    <t># this extracts the equation from p using poly1d</t>
+  </si>
+  <si>
+    <t>print(np.poly1d(p))</t>
+  </si>
+  <si>
+    <t># if x = 6 ?</t>
+  </si>
+  <si>
+    <t>print(np.poly1d(p(6)))</t>
+  </si>
+  <si>
+    <t>Linear Regression - Simple Linear Equation</t>
+  </si>
+  <si>
+    <t>Linear Regression - Multiple Linear Equation</t>
+  </si>
+  <si>
+    <t>from sklearn.linear_model import LinearRegression</t>
+  </si>
+  <si>
+    <t>i = (0,-1,-3,-4,-5,-7,-8,-9,-11)</t>
+  </si>
+  <si>
+    <t>studyData = pd.DataFrame({'Grades': y , 'Interrupt':i})</t>
+  </si>
+  <si>
+    <t>plt.scatter(x,i)</t>
+  </si>
+  <si>
+    <t>plt.legend(['Grades' , 'Interruptions'])</t>
+  </si>
+  <si>
+    <t>regress = LinearRegression()</t>
+  </si>
+  <si>
+    <t>studyData_pred = model.predict(studyData)</t>
+  </si>
+  <si>
+    <t>print(model.predict([[95,-7]]).round(2).item(0))</t>
+  </si>
+  <si>
+    <t>model = regress.fit(studyData.values , x)</t>
+  </si>
+  <si>
+    <t>plt.plot(studyData_pred , studyData.values , 'g-')</t>
+  </si>
+  <si>
+    <t>print(model.predict([[90,0],[98,-8]]).round(2))</t>
+  </si>
+  <si>
+    <t>isin()</t>
+  </si>
+  <si>
+    <t>sales.loc[games.Platform.isin(['PS3' , 'X360'])].sum(numeric_only =True)</t>
+  </si>
+  <si>
+    <t>sales.loc[games.Platform == 'PS3'].sum(numeric_only =True)</t>
+  </si>
+  <si>
+    <t>for i in sales.groupby('Platform'):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    print(i)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">use sales.groupby('Platform').size() </t>
+  </si>
+  <si>
+    <t>sales.groupby('Platform').get_group('PS3').head(3)</t>
+  </si>
+  <si>
+    <t>sales.groupby('Platform').groups # return the key / value part of the row index belonging to each group</t>
+  </si>
+  <si>
+    <t>dict(iter(sales.groupby('Platform')))</t>
+  </si>
+  <si>
+    <t>dict(iter(sales.groupby('Platform')))['PS3'] # now you can extract a single group from the dict</t>
+  </si>
+  <si>
+    <t>or use get_group()</t>
+  </si>
+  <si>
+    <t>sales.groupby('Platform').get_group('PS3')</t>
+  </si>
+  <si>
+    <t>studios.groupby('Publisher').sum().sort_values(by = 'Global_Sales' , ascending= False)</t>
+  </si>
+  <si>
+    <t># question is which are the top publishers within each genre by global sales ?</t>
+  </si>
+  <si>
+    <t>studios.groupby(['Genre' , 'Publisher']).sum().sort_values(by= 'Global_Sales' , ascending=  False)</t>
+  </si>
+  <si>
+    <t># question is which are the top publishers by global sales ?</t>
+  </si>
+  <si>
+    <t>studios.groupby(['Genre' , 'Publisher']).sum().index</t>
+  </si>
+  <si>
+    <t>studios.groupby(['Genre' , 'Publisher']).agg([np.sum , np.median])</t>
+  </si>
+  <si>
+    <t>games_url = 'https://www.andybek.com/pandas-games'</t>
+  </si>
+  <si>
+    <t>games = pd.read_csv(games_url)</t>
+  </si>
+  <si>
+    <t># summarise the sum , count , average and standard deviation of sales as well as number of games published by each publisher within each genre</t>
+  </si>
+  <si>
+    <t>studios.groupby(['Genre' , 'Publisher']).agg([np.sum , 'count' ,  np.mean , np.std]).sort_values(by=( 'Global_Sales' , 'sum') , ascending= False)</t>
+  </si>
+  <si>
+    <t># can see 2 levels of index</t>
+  </si>
+  <si>
+    <t>studios.groupby(['Genre' , 'Publisher']).agg([np.sum , 'count' ,  np.mean , np.std]).columns</t>
+  </si>
+  <si>
+    <t>studios.groupby(['Genre' , 'Publisher']).agg([np.sum , 'count' ,  np.mean , np.std]).rename({'sum' : 'total_revenue' , 'count' : 'num_games'} , axis = 1)</t>
+  </si>
+  <si>
+    <t>#renaming the columns</t>
+  </si>
+  <si>
+    <t># Same as above</t>
+  </si>
+  <si>
+    <t xml:space="preserve">studios.groupby(['Genre' , 'Publisher']).agg(total_revenue = ('Global_Sales' , 'sum') , num_games = ('Global_Sales' , np.mean)) </t>
+  </si>
+  <si>
+    <t>games.groupby(['Genre' , 'Publisher']).agg(total_global_revenue = ('Global_Sales' , 'sum') , average_EU_revenue = ('EU_Sales' , 'mean'))</t>
+  </si>
+  <si>
+    <t># even better appproach</t>
+  </si>
+  <si>
+    <t>games.groupby(['Genre' , 'Publisher']).agg(</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'Global_Sales' : 'sum' , </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'EU_Sales' : np.mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    }</t>
+  </si>
+  <si>
+    <t>)</t>
+  </si>
+  <si>
+    <t># find all games whose publisher has sold more than 50M in North America within the game's genre</t>
+  </si>
+  <si>
+    <t># step 1 - get access to the subgroups</t>
+  </si>
+  <si>
+    <t># step 2 - Isolate North America from each subgroup</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># Step 3 - Calculate the sum and </t>
+  </si>
+  <si>
+    <t xml:space="preserve"># Step 4 - Compare the sum to 50 and only return true if greater than </t>
+  </si>
+  <si>
+    <t>games.groupby(['Publisher' , 'Genre']).filter(lambda sg : sg['NA_Sales'].sum() &gt; 50)</t>
+  </si>
+  <si>
+    <t>same as</t>
+  </si>
+  <si>
+    <t>def more_than_50(df):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    return df['NA_Sales'].sum() &gt; 50</t>
+  </si>
+  <si>
+    <t>games.groupby(['Publisher','Genre']).filter(more_than_50)</t>
+  </si>
+  <si>
+    <t>games_relative = games.loc[: , ['Name' , 'Genre' , 'Platform' ,'Global_Sales']]</t>
+  </si>
+  <si>
+    <t># convert raw global_sales to within-genre standard scores - useing z score</t>
+  </si>
+  <si>
+    <t>games_relative.set_index(['Name' , 'Platform']).groupby('Genre').transform(lambda x: (x - x.mean()) / x.std())</t>
+  </si>
+  <si>
+    <t>ps3 = games.loc[games.Platform == 'PS3' , ['Name' , 'Genre' , 'EU_Sales' , 'Global_Sales']]</t>
+  </si>
+  <si>
+    <t>ps3.groupby('Genre').apply(lambda sg : 'solid' if sg.EU_Sales .sum() &gt; 50 else 'weak')</t>
+  </si>
+  <si>
+    <t>def sales_details(sg):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    level = 'solid' if sg.EU_Sales .sum() &gt; 50 else 'weak'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    variability = 'volatile' if sg.EU_Sales.std() / sg.EU_Sales.mean() &gt; 2 else 'steady'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    return (variability , level + 'sales')</t>
+  </si>
+  <si>
+    <t>ps3.groupby('Genre').apply(sales_details)</t>
+  </si>
+  <si>
+    <t>ps3.groupby('Genre').apply(lambda x: print(x.info() , '\n'))</t>
+  </si>
+  <si>
+    <t># take each subgroup and print info of the subgroup</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1309,6 +1686,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF202124"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF202124"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1340,7 +1730,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1355,6 +1745,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1671,10 +2067,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79E9A589-AD7A-4E88-B929-890A4FD0CF44}">
-  <dimension ref="B2:F156"/>
+  <dimension ref="B2:F257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D118" workbookViewId="0">
-      <selection activeCell="F132" sqref="F132"/>
+    <sheetView tabSelected="1" topLeftCell="D223" workbookViewId="0">
+      <selection activeCell="F256" sqref="F256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1683,7 +2079,7 @@
     <col min="3" max="3" width="38.140625" customWidth="1"/>
     <col min="4" max="4" width="64.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="52.42578125" customWidth="1"/>
-    <col min="6" max="6" width="117.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="132.85546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="20.25" thickBot="1">
@@ -1930,6 +2326,9 @@
       </c>
     </row>
     <row r="23" spans="3:6">
+      <c r="C23" t="s">
+        <v>270</v>
+      </c>
       <c r="E23" t="s">
         <v>40</v>
       </c>
@@ -1938,6 +2337,9 @@
       </c>
     </row>
     <row r="24" spans="3:6">
+      <c r="C24" t="s">
+        <v>271</v>
+      </c>
       <c r="D24" t="s">
         <v>182</v>
       </c>
@@ -2043,6 +2445,9 @@
       <c r="C33" t="s">
         <v>230</v>
       </c>
+      <c r="E33" t="s">
+        <v>269</v>
+      </c>
       <c r="F33" s="1" t="s">
         <v>77</v>
       </c>
@@ -2051,6 +2456,9 @@
       <c r="D34" s="3" t="s">
         <v>183</v>
       </c>
+      <c r="E34" t="s">
+        <v>284</v>
+      </c>
       <c r="F34" s="1" t="s">
         <v>93</v>
       </c>
@@ -2059,6 +2467,9 @@
       <c r="D35" s="3" t="s">
         <v>184</v>
       </c>
+      <c r="E35" t="s">
+        <v>286</v>
+      </c>
       <c r="F35" s="1" t="s">
         <v>94</v>
       </c>
@@ -2067,9 +2478,6 @@
       <c r="D36" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="E36" t="s">
-        <v>29</v>
-      </c>
       <c r="F36" s="1" t="s">
         <v>116</v>
       </c>
@@ -2078,9 +2486,6 @@
       <c r="D37" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="E37" t="s">
-        <v>38</v>
-      </c>
       <c r="F37" s="1" t="s">
         <v>117</v>
       </c>
@@ -2089,9 +2494,6 @@
       <c r="D38" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="E38" t="s">
-        <v>41</v>
-      </c>
       <c r="F38" s="1" t="s">
         <v>121</v>
       </c>
@@ -2121,6 +2523,9 @@
       <c r="D42" t="s">
         <v>231</v>
       </c>
+      <c r="E42" t="s">
+        <v>29</v>
+      </c>
       <c r="F42" s="1" t="s">
         <v>126</v>
       </c>
@@ -2129,6 +2534,9 @@
       <c r="D43" s="3" t="s">
         <v>186</v>
       </c>
+      <c r="E43" t="s">
+        <v>38</v>
+      </c>
       <c r="F43" s="1" t="s">
         <v>136</v>
       </c>
@@ -2137,6 +2545,9 @@
       <c r="D44" s="3" t="s">
         <v>232</v>
       </c>
+      <c r="E44" t="s">
+        <v>41</v>
+      </c>
       <c r="F44" s="1" t="s">
         <v>138</v>
       </c>
@@ -2145,6 +2556,9 @@
       <c r="D45" s="3" t="s">
         <v>186</v>
       </c>
+      <c r="E45" t="s">
+        <v>285</v>
+      </c>
       <c r="F45" s="1" t="s">
         <v>143</v>
       </c>
@@ -2153,6 +2567,9 @@
       <c r="D46" t="s">
         <v>233</v>
       </c>
+      <c r="E46" t="s">
+        <v>287</v>
+      </c>
       <c r="F46" s="1" t="s">
         <v>144</v>
       </c>
@@ -2274,373 +2691,764 @@
         <v>250</v>
       </c>
     </row>
+    <row r="68" spans="6:6">
+      <c r="F68" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="69" spans="6:6">
+      <c r="F69" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="70" spans="6:6">
+      <c r="F70" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="71" spans="6:6">
+      <c r="F71" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="72" spans="6:6">
+      <c r="F72" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="73" spans="6:6">
+      <c r="F73" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
     <row r="74" spans="6:6">
       <c r="F74" s="1" t="s">
-        <v>69</v>
+        <v>273</v>
       </c>
     </row>
     <row r="75" spans="6:6">
       <c r="F75" s="1" t="s">
-        <v>70</v>
+        <v>277</v>
       </c>
     </row>
     <row r="76" spans="6:6">
       <c r="F76" s="1" t="s">
-        <v>18</v>
+        <v>278</v>
       </c>
     </row>
     <row r="77" spans="6:6">
       <c r="F77" s="1" t="s">
-        <v>20</v>
+        <v>282</v>
       </c>
     </row>
     <row r="78" spans="6:6">
       <c r="F78" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="79" spans="6:6">
-      <c r="F79" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="80" spans="6:6">
-      <c r="F80" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="81" spans="6:6">
-      <c r="F81" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="82" spans="6:6">
-      <c r="F82" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="83" spans="6:6" ht="15.75">
-      <c r="F83" s="4" t="s">
-        <v>66</v>
+        <v>319</v>
       </c>
     </row>
     <row r="84" spans="6:6">
       <c r="F84" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="85" spans="6:6">
       <c r="F85" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="86" spans="6:6">
       <c r="F86" s="1" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87" spans="6:6">
       <c r="F87" s="1" t="s">
-        <v>78</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" spans="6:6">
       <c r="F88" s="1" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
     </row>
     <row r="89" spans="6:6">
       <c r="F89" s="1" t="s">
-        <v>119</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" spans="6:6">
       <c r="F90" s="1" t="s">
-        <v>120</v>
+        <v>22</v>
       </c>
     </row>
     <row r="91" spans="6:6">
       <c r="F91" s="1" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
     </row>
     <row r="92" spans="6:6">
       <c r="F92" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="93" spans="6:6">
-      <c r="F93" s="1" t="s">
-        <v>142</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="93" spans="6:6" ht="15.75">
+      <c r="F93" s="4" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="94" spans="6:6">
       <c r="F94" s="1" t="s">
-        <v>143</v>
+        <v>67</v>
       </c>
     </row>
     <row r="95" spans="6:6">
       <c r="F95" s="1" t="s">
-        <v>144</v>
+        <v>68</v>
       </c>
     </row>
     <row r="96" spans="6:6">
       <c r="F96" s="1" t="s">
-        <v>145</v>
+        <v>75</v>
       </c>
     </row>
     <row r="97" spans="6:6">
       <c r="F97" s="1" t="s">
-        <v>148</v>
+        <v>78</v>
       </c>
     </row>
     <row r="98" spans="6:6">
       <c r="F98" s="1" t="s">
-        <v>150</v>
+        <v>80</v>
       </c>
     </row>
     <row r="99" spans="6:6">
       <c r="F99" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="100" spans="6:6">
+      <c r="F100" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="101" spans="6:6">
+      <c r="F101" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="102" spans="6:6">
+      <c r="F102" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="103" spans="6:6">
+      <c r="F103" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="104" spans="6:6">
+      <c r="F104" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="105" spans="6:6">
+      <c r="F105" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="106" spans="6:6">
+      <c r="F106" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="107" spans="6:6">
+      <c r="F107" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="108" spans="6:6">
+      <c r="F108" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="109" spans="6:6">
+      <c r="F109" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="100" spans="6:6" ht="15.75">
-      <c r="F100" s="4" t="s">
+    <row r="110" spans="6:6" ht="15.75">
+      <c r="F110" s="4" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="101" spans="6:6" ht="15.75">
-      <c r="F101" s="4" t="s">
+    <row r="111" spans="6:6" ht="15.75">
+      <c r="F111" s="4" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="102" spans="6:6" ht="15.75">
-      <c r="F102" s="4" t="s">
+    <row r="112" spans="6:6" ht="15.75">
+      <c r="F112" s="4" t="s">
         <v>156</v>
-      </c>
-    </row>
-    <row r="103" spans="6:6">
-      <c r="F103" s="4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="104" spans="6:6">
-      <c r="F104" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="105" spans="6:6">
-      <c r="F105" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="106" spans="6:6">
-      <c r="F106" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="107" spans="6:6">
-      <c r="F107" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="108" spans="6:6">
-      <c r="F108" s="4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="109" spans="6:6">
-      <c r="F109" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="110" spans="6:6">
-      <c r="F110" s="4" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="111" spans="6:6">
-      <c r="F111" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="112" spans="6:6">
-      <c r="F112" s="4" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="113" spans="5:6">
       <c r="F113" s="4" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
     </row>
     <row r="114" spans="5:6">
-      <c r="F114" s="1" t="s">
-        <v>170</v>
+      <c r="F114" s="4" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="115" spans="5:6">
-      <c r="F115" s="1" t="s">
-        <v>171</v>
+      <c r="F115" s="4" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="116" spans="5:6">
       <c r="F116" s="4" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="117" spans="5:6">
       <c r="F117" s="4" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="118" spans="5:6">
       <c r="F118" s="4" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
     </row>
     <row r="119" spans="5:6">
       <c r="F119" s="4" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
     </row>
     <row r="120" spans="5:6">
       <c r="F120" s="4" t="s">
-        <v>210</v>
+        <v>168</v>
       </c>
     </row>
     <row r="121" spans="5:6">
-      <c r="E121" s="2"/>
       <c r="F121" s="4" t="s">
-        <v>211</v>
+        <v>169</v>
       </c>
     </row>
     <row r="122" spans="5:6">
       <c r="F122" s="4" t="s">
-        <v>213</v>
+        <v>170</v>
       </c>
     </row>
     <row r="123" spans="5:6">
-      <c r="F123" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="124" spans="5:6" ht="30">
-      <c r="F124" s="4" t="s">
-        <v>215</v>
+      <c r="F123" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="124" spans="5:6">
+      <c r="F124" s="1" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="125" spans="5:6">
-      <c r="F125" s="4" t="s">
-        <v>216</v>
+      <c r="F125" s="1" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="126" spans="5:6">
       <c r="F126" s="4" t="s">
-        <v>218</v>
+        <v>172</v>
       </c>
     </row>
     <row r="127" spans="5:6">
+      <c r="E127" s="2"/>
       <c r="F127" s="4" t="s">
-        <v>219</v>
+        <v>173</v>
       </c>
     </row>
     <row r="128" spans="5:6">
       <c r="F128" s="4" t="s">
-        <v>244</v>
+        <v>177</v>
       </c>
     </row>
     <row r="129" spans="6:6">
       <c r="F129" s="4" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="130" spans="6:6" ht="30">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="130" spans="6:6">
       <c r="F130" s="4" t="s">
-        <v>247</v>
+        <v>210</v>
       </c>
     </row>
     <row r="131" spans="6:6">
       <c r="F131" s="4" t="s">
-        <v>249</v>
+        <v>211</v>
       </c>
     </row>
     <row r="132" spans="6:6">
       <c r="F132" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="133" spans="6:6">
+      <c r="F133" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="134" spans="6:6" ht="30">
+      <c r="F134" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="135" spans="6:6">
+      <c r="F135" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="136" spans="6:6">
+      <c r="F136" s="4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="137" spans="6:6">
+      <c r="F137" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="138" spans="6:6">
+      <c r="F138" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="139" spans="6:6">
+      <c r="F139" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="140" spans="6:6" ht="30">
+      <c r="F140" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="141" spans="6:6">
+      <c r="F141" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="142" spans="6:6">
+      <c r="F142" s="4" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="133" spans="6:6">
-      <c r="F133" s="4"/>
-    </row>
-    <row r="138" spans="6:6">
-      <c r="F138" s="1" t="s">
+    <row r="143" spans="6:6">
+      <c r="F143" s="4" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="144" spans="6:6">
+      <c r="F144" s="4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="145" spans="6:6" ht="30">
+      <c r="F145" s="4" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="146" spans="6:6">
+      <c r="F146" s="4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="147" spans="6:6">
+      <c r="F147" s="4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="148" spans="6:6">
+      <c r="F148" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="149" spans="6:6">
+      <c r="F149" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="150" spans="6:6">
+      <c r="F150" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="151" spans="6:6">
+      <c r="F151" s="4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="152" spans="6:6">
+      <c r="F152" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="153" spans="6:6">
+      <c r="F153" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="154" spans="6:6">
+      <c r="F154" s="4"/>
+    </row>
+    <row r="155" spans="6:6">
+      <c r="F155" s="4"/>
+    </row>
+    <row r="156" spans="6:6">
+      <c r="F156" s="4"/>
+    </row>
+    <row r="161" spans="6:6">
+      <c r="F161" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="139" spans="6:6">
-      <c r="F139" s="1" t="s">
+    <row r="162" spans="6:6">
+      <c r="F162" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="140" spans="6:6">
-      <c r="F140" s="1" t="s">
+    <row r="163" spans="6:6">
+      <c r="F163" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="141" spans="6:6">
-      <c r="F141" s="1" t="s">
+    <row r="164" spans="6:6">
+      <c r="F164" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="142" spans="6:6">
-      <c r="F142" s="1" t="s">
+    <row r="165" spans="6:6">
+      <c r="F165" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="143" spans="6:6">
-      <c r="F143" s="1" t="s">
+    <row r="166" spans="6:6">
+      <c r="F166" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="144" spans="6:6">
-      <c r="F144" s="1" t="s">
+    <row r="167" spans="6:6">
+      <c r="F167" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="146" spans="6:6">
-      <c r="F146" s="1" t="s">
+    <row r="169" spans="6:6">
+      <c r="F169" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="148" spans="6:6">
-      <c r="F148" s="1" t="s">
+    <row r="171" spans="6:6">
+      <c r="F171" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="151" spans="6:6">
-      <c r="F151" s="1" t="s">
+    <row r="174" spans="6:6">
+      <c r="F174" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="152" spans="6:6">
-      <c r="F152" s="1" t="s">
+    <row r="175" spans="6:6">
+      <c r="F175" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="153" spans="6:6">
-      <c r="F153" s="1" t="s">
+    <row r="176" spans="6:6">
+      <c r="F176" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="155" spans="6:6">
-      <c r="F155" s="1" t="s">
+    <row r="178" spans="6:6">
+      <c r="F178" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="156" spans="6:6">
-      <c r="F156" s="1" t="s">
+    <row r="179" spans="6:6">
+      <c r="F179" s="1" t="s">
         <v>99</v>
+      </c>
+    </row>
+    <row r="182" spans="6:6">
+      <c r="F182" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="183" spans="6:6">
+      <c r="F183" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="185" spans="6:6">
+      <c r="F185" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="186" spans="6:6">
+      <c r="F186" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="188" spans="6:6">
+      <c r="F188" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="189" spans="6:6">
+      <c r="F189" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="191" spans="6:6">
+      <c r="F191" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="193" spans="6:6">
+      <c r="F193" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="194" spans="6:6">
+      <c r="F194" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="195" spans="6:6">
+      <c r="F195" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="196" spans="6:6">
+      <c r="F196" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="198" spans="6:6">
+      <c r="F198" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="199" spans="6:6">
+      <c r="F199" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="201" spans="6:6">
+      <c r="F201" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="202" spans="6:6">
+      <c r="F202" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="204" spans="6:6">
+      <c r="F204" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="206" spans="6:6">
+      <c r="F206" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="208" spans="6:6">
+      <c r="F208" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="209" spans="6:6">
+      <c r="F209" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="211" spans="6:6">
+      <c r="F211" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="212" spans="6:6">
+      <c r="F212" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="214" spans="6:6">
+      <c r="F214" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="215" spans="6:6">
+      <c r="F215" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="216" spans="6:6">
+      <c r="F216" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="217" spans="6:6">
+      <c r="F217" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="219" spans="6:6">
+      <c r="F219" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="221" spans="6:6">
+      <c r="F221" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="222" spans="6:6">
+      <c r="F222" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="223" spans="6:6">
+      <c r="F223" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="224" spans="6:6">
+      <c r="F224" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="225" spans="6:6">
+      <c r="F225" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="226" spans="6:6">
+      <c r="F226" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="227" spans="6:6">
+      <c r="F227" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="229" spans="6:6">
+      <c r="F229" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="230" spans="6:6">
+      <c r="F230" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="231" spans="6:6">
+      <c r="F231" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="232" spans="6:6">
+      <c r="F232" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="233" spans="6:6">
+      <c r="F233" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="234" spans="6:6">
+      <c r="F234" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="236" spans="6:6">
+      <c r="F236" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="238" spans="6:6">
+      <c r="F238" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="239" spans="6:6">
+      <c r="F239" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="240" spans="6:6">
+      <c r="F240" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="242" spans="6:6">
+      <c r="F242" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="243" spans="6:6">
+      <c r="F243" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="244" spans="6:6">
+      <c r="F244" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="246" spans="6:6">
+      <c r="F246" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="247" spans="6:6">
+      <c r="F247" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="249" spans="6:6">
+      <c r="F249" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="250" spans="6:6">
+      <c r="F250" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="251" spans="6:6">
+      <c r="F251" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="252" spans="6:6">
+      <c r="F252" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="254" spans="6:6">
+      <c r="F254" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="256" spans="6:6">
+      <c r="F256" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="257" spans="6:6">
+      <c r="F257" s="1" t="s">
+        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -2651,24 +3459,110 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3855EA0-DC9D-4DA0-A79D-468A9B802C64}">
-  <dimension ref="A1"/>
+  <dimension ref="B3:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="54.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="80.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4">
+      <c r="B3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" t="s">
+        <v>262</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="18.75" customHeight="1">
+      <c r="B6" t="s">
+        <v>263</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="31.5">
+      <c r="B14" s="7" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="30">
+      <c r="B15" s="8" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" s="8" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="8" t="s">
+        <v>268</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB68017E-54A1-479D-B0B2-E8E6FCCA6356}">
+  <dimension ref="B2:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="25.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="28" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4">
+      <c r="B2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8807BCAA-CD11-417E-B2D4-30513A7D4983}">
   <dimension ref="B2:E122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2860,35 +3754,209 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65408CBA-F719-4384-9761-BC7C35558BAF}">
-  <dimension ref="B2:C3"/>
+  <dimension ref="B2:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="29.5703125" customWidth="1"/>
     <col min="3" max="3" width="26.85546875" customWidth="1"/>
+    <col min="4" max="4" width="71.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="20.25" thickBot="1">
+    <row r="2" spans="2:5" ht="20.25" thickBot="1">
       <c r="B2" s="5" t="s">
         <v>223</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" ht="15.75" thickTop="1"/>
+      <c r="D2" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="15.75" thickTop="1"/>
+    <row r="4" spans="2:5">
+      <c r="D4" t="s">
+        <v>288</v>
+      </c>
+      <c r="E4" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="D6" t="s">
+        <v>192</v>
+      </c>
+      <c r="E6" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="D8" t="s">
+        <v>289</v>
+      </c>
+      <c r="E8" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="D9" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="E10" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="D11" t="s">
+        <v>291</v>
+      </c>
+      <c r="E11" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="D12" t="s">
+        <v>292</v>
+      </c>
+      <c r="E12" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="D14" t="s">
+        <v>293</v>
+      </c>
+      <c r="E14" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="D15" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="D16" t="s">
+        <v>295</v>
+      </c>
+      <c r="E16" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5">
+      <c r="D17" t="s">
+        <v>296</v>
+      </c>
+      <c r="E17" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5">
+      <c r="E18" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5">
+      <c r="D19" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5">
+      <c r="D20" t="s">
+        <v>298</v>
+      </c>
+      <c r="E20" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5">
+      <c r="D21" t="s">
+        <v>299</v>
+      </c>
+      <c r="E21" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="22" spans="4:5">
+      <c r="D22" t="s">
+        <v>300</v>
+      </c>
+      <c r="E22" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="24" spans="4:5">
+      <c r="D24" t="s">
+        <v>301</v>
+      </c>
+      <c r="E24" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="25" spans="4:5">
+      <c r="D25" t="s">
+        <v>302</v>
+      </c>
+      <c r="E25" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="26" spans="4:5">
+      <c r="D26" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="27" spans="4:5">
+      <c r="E27" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="28" spans="4:5">
+      <c r="D28" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="29" spans="4:5">
+      <c r="D29" t="s">
+        <v>305</v>
+      </c>
+      <c r="E29" t="s">
+        <v>318</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93956EA2-477E-4846-8BA8-A19A7B4BF40D}">
   <dimension ref="B2:B21"/>
   <sheetViews>
@@ -2988,7 +4056,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E96AF171-92C7-4E76-8196-8C5772FF6093}">
   <dimension ref="B2:C7"/>
   <sheetViews>
@@ -3011,4 +4079,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77EF76F1-92CF-42FF-804A-CBD6B162832A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Python.xlsx
+++ b/Python.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1386D88C-FD4E-4555-BC97-EB66D6A38F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED4EFE4-C0EA-4496-8644-6DB2CB69DF08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{570A2267-BD17-432D-9B9F-8D7ACBFD45E8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="633" activeTab="2" xr2:uid="{570A2267-BD17-432D-9B9F-8D7ACBFD45E8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Python Programming" sheetId="1" r:id="rId1"/>
-    <sheet name="Data Cleaning" sheetId="6" r:id="rId2"/>
-    <sheet name="Scientific Computing" sheetId="7" r:id="rId3"/>
-    <sheet name="Visualisation" sheetId="3" r:id="rId4"/>
-    <sheet name="Machine Learning" sheetId="2" r:id="rId5"/>
-    <sheet name="Fintech" sheetId="4" r:id="rId6"/>
-    <sheet name="NLP" sheetId="5" r:id="rId7"/>
-    <sheet name="AI" sheetId="8" r:id="rId8"/>
+    <sheet name="Essential Python" sheetId="10" r:id="rId1"/>
+    <sheet name="Python Programming" sheetId="1" r:id="rId2"/>
+    <sheet name="R" sheetId="11" r:id="rId3"/>
+    <sheet name="Data Cleaning" sheetId="6" r:id="rId4"/>
+    <sheet name="Scientific Computing" sheetId="7" r:id="rId5"/>
+    <sheet name="Visualisation" sheetId="3" r:id="rId6"/>
+    <sheet name="Networking" sheetId="9" r:id="rId7"/>
+    <sheet name="Machine Learning" sheetId="2" r:id="rId8"/>
+    <sheet name="Fintech" sheetId="4" r:id="rId9"/>
+    <sheet name="NLP" sheetId="5" r:id="rId10"/>
+    <sheet name="Deep Learning" sheetId="8" r:id="rId11"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="446">
   <si>
     <t>List</t>
   </si>
@@ -1066,9 +1069,6 @@
     <t>np.linspace(0,5,21)</t>
   </si>
   <si>
-    <t>matplotlib</t>
-  </si>
-  <si>
     <t>import matplotlib.pyplot as plt</t>
   </si>
   <si>
@@ -1622,6 +1622,216 @@
   </si>
   <si>
     <t># take each subgroup and print info of the subgroup</t>
+  </si>
+  <si>
+    <t>Numerical or Categorical ?</t>
+  </si>
+  <si>
+    <t>Numerical</t>
+  </si>
+  <si>
+    <t>Categorical</t>
+  </si>
+  <si>
+    <t>Single variable</t>
+  </si>
+  <si>
+    <t>Multiple variable</t>
+  </si>
+  <si>
+    <t>historical , box</t>
+  </si>
+  <si>
+    <t>bubble , scatter</t>
+  </si>
+  <si>
+    <t>bar chart side by side</t>
+  </si>
+  <si>
+    <t>bar chart</t>
+  </si>
+  <si>
+    <t>beeswan plot ???</t>
+  </si>
+  <si>
+    <t>must be careful for big dataset</t>
+  </si>
+  <si>
+    <t>violin plot</t>
+  </si>
+  <si>
+    <t>probability density</t>
+  </si>
+  <si>
+    <t>df.cov() # covariance</t>
+  </si>
+  <si>
+    <t>df.corr() # correlation - strength between 2 variables</t>
+  </si>
+  <si>
+    <t>to see the relationships between 2 variables . scatter plot or join plot</t>
+  </si>
+  <si>
+    <t>to see the relationship between 2 categorical variables - bar plot</t>
+  </si>
+  <si>
+    <t>to see the relationship between 1 continuous and 1 categorical - pnel of histogram or side-by-side box plot</t>
+  </si>
+  <si>
+    <t>temporal relationship - line chart</t>
+  </si>
+  <si>
+    <t>https://www.tutorialspoint.com/matplotlib/matplotlib_pyplot_api.htm</t>
+  </si>
+  <si>
+    <t>plt.style.available</t>
+  </si>
+  <si>
+    <t>plt.style.use('ggplot')</t>
+  </si>
+  <si>
+    <t>plt.legend()</t>
+  </si>
+  <si>
+    <t>plt.legend(loc = 'upper left');</t>
+  </si>
+  <si>
+    <t>figure , axes = plt.subplots()</t>
+  </si>
+  <si>
+    <t>axes.plot(x.cumsum() , label = 'x');</t>
+  </si>
+  <si>
+    <t>axes.plot(y.cumsum() , color = 'purple' , label = 'y');</t>
+  </si>
+  <si>
+    <t>axes.legend(loc = 'upper left');</t>
+  </si>
+  <si>
+    <t>figure.set_size_inches(10,2)</t>
+  </si>
+  <si>
+    <t>matplotlib - figure , axis</t>
+  </si>
+  <si>
+    <t>pyshark</t>
+  </si>
+  <si>
+    <t>dpkt</t>
+  </si>
+  <si>
+    <t>scapy</t>
+  </si>
+  <si>
+    <t>Must Know</t>
+  </si>
+  <si>
+    <t>Should know</t>
+  </si>
+  <si>
+    <t>Good to know</t>
+  </si>
+  <si>
+    <t>Extra</t>
+  </si>
+  <si>
+    <t>Lists</t>
+  </si>
+  <si>
+    <t>Matplotlib</t>
+  </si>
+  <si>
+    <t>ta-lib</t>
+  </si>
+  <si>
+    <t>Pytorch / Keras</t>
+  </si>
+  <si>
+    <t>pyalgotrade</t>
+  </si>
+  <si>
+    <t>zipline</t>
+  </si>
+  <si>
+    <t>pytest</t>
+  </si>
+  <si>
+    <t>textblob</t>
+  </si>
+  <si>
+    <t>Textblob</t>
+  </si>
+  <si>
+    <t>scrapy</t>
+  </si>
+  <si>
+    <t>ffn</t>
+  </si>
+  <si>
+    <t>tenshowflow</t>
+  </si>
+  <si>
+    <t>Keras</t>
+  </si>
+  <si>
+    <t>PyTorch</t>
+  </si>
+  <si>
+    <t>scipy</t>
+  </si>
+  <si>
+    <t>user_data &lt;- data.frame(</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    age = c(25,27,35,41,48,56) ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    sex = c('M','F','M','F','M','M') ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    income = c(1500,2500,4000,5500,6300,8000),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    height = c(1.5,1.78,2,1.9,1.4,1.6)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    )</t>
+  </si>
+  <si>
+    <t>print(user_data)</t>
+  </si>
+  <si>
+    <t>sum(user_data$sex == 'M')</t>
+  </si>
+  <si>
+    <t>table(user_data$sex)</t>
+  </si>
+  <si>
+    <t>plot(user_data$age ,user_data$income )</t>
+  </si>
+  <si>
+    <t>lmIncomeAge &lt;- lm(income~age, data = user_data) #Create the linear regression</t>
+  </si>
+  <si>
+    <t>summary(lmIncomeAge) #Review the results</t>
+  </si>
+  <si>
+    <t>plot(income~age, data = user_data)</t>
+  </si>
+  <si>
+    <t>abline(lmIncomeAge)</t>
+  </si>
+  <si>
+    <t>data()</t>
+  </si>
+  <si>
+    <t>https://feliperego.github.io/blog/2015/10/23/Interpreting-Model-Output-In-R</t>
+  </si>
+  <si>
+    <t>summary(cars)</t>
+  </si>
+  <si>
+    <t>?cars</t>
   </si>
 </sst>
 </file>
@@ -2066,11 +2276,171 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5D4C38C-3A46-4F5E-9774-AA105FC829C6}">
+  <dimension ref="B2:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="26.5703125" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" customWidth="1"/>
+    <col min="4" max="4" width="37.28515625" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5">
+      <c r="B2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C2" t="s">
+        <v>410</v>
+      </c>
+      <c r="D2" t="s">
+        <v>411</v>
+      </c>
+      <c r="E2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" t="s">
+        <v>413</v>
+      </c>
+      <c r="C4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D4" t="s">
+        <v>406</v>
+      </c>
+      <c r="E4" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" t="s">
+        <v>414</v>
+      </c>
+      <c r="C7" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" t="s">
+        <v>222</v>
+      </c>
+      <c r="C8" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" t="s">
+        <v>416</v>
+      </c>
+      <c r="C9" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" t="s">
+        <v>415</v>
+      </c>
+      <c r="C10" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E96AF171-92C7-4E76-8196-8C5772FF6093}">
+  <dimension ref="B2:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="2:4" ht="20.25" thickBot="1">
+      <c r="B2" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="2:4" ht="15.75" thickTop="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77EF76F1-92CF-42FF-804A-CBD6B162832A}">
+  <dimension ref="B2:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" ht="20.25" thickBot="1">
+      <c r="B2" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="15.75" thickTop="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79E9A589-AD7A-4E88-B929-890A4FD0CF44}">
   <dimension ref="B2:F257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D223" workbookViewId="0">
-      <selection activeCell="F256" sqref="F256"/>
+    <sheetView topLeftCell="D115" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2151,7 +2521,7 @@
     </row>
     <row r="10" spans="2:6">
       <c r="B10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C10" t="s">
         <v>82</v>
@@ -2241,7 +2611,7 @@
         <v>88</v>
       </c>
       <c r="D16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E16" t="s">
         <v>53</v>
@@ -2255,7 +2625,7 @@
         <v>89</v>
       </c>
       <c r="D17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E17" t="s">
         <v>54</v>
@@ -2269,7 +2639,7 @@
         <v>90</v>
       </c>
       <c r="D18" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E18" t="s">
         <v>51</v>
@@ -2316,7 +2686,7 @@
     </row>
     <row r="22" spans="3:6">
       <c r="C22" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E22" t="s">
         <v>39</v>
@@ -2327,7 +2697,7 @@
     </row>
     <row r="23" spans="3:6">
       <c r="C23" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E23" t="s">
         <v>40</v>
@@ -2338,7 +2708,7 @@
     </row>
     <row r="24" spans="3:6">
       <c r="C24" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D24" t="s">
         <v>182</v>
@@ -2371,7 +2741,7 @@
     </row>
     <row r="27" spans="3:6">
       <c r="D27" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E27" t="s">
         <v>45</v>
@@ -2382,7 +2752,7 @@
     </row>
     <row r="28" spans="3:6">
       <c r="D28" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E28" t="s">
         <v>46</v>
@@ -2393,7 +2763,7 @@
     </row>
     <row r="29" spans="3:6">
       <c r="C29" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E29" t="s">
         <v>47</v>
@@ -2407,7 +2777,7 @@
         <v>189</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E30" t="s">
         <v>48</v>
@@ -2418,10 +2788,10 @@
     </row>
     <row r="31" spans="3:6">
       <c r="C31" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E31" t="s">
         <v>49</v>
@@ -2432,7 +2802,7 @@
     </row>
     <row r="32" spans="3:6">
       <c r="C32" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E32" t="s">
         <v>50</v>
@@ -2443,10 +2813,10 @@
     </row>
     <row r="33" spans="3:6">
       <c r="C33" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E33" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>77</v>
@@ -2457,7 +2827,7 @@
         <v>183</v>
       </c>
       <c r="E34" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>93</v>
@@ -2468,7 +2838,7 @@
         <v>184</v>
       </c>
       <c r="E35" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>94</v>
@@ -2521,7 +2891,7 @@
     </row>
     <row r="42" spans="3:6">
       <c r="D42" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E42" t="s">
         <v>29</v>
@@ -2543,7 +2913,7 @@
     </row>
     <row r="44" spans="3:6">
       <c r="D44" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E44" t="s">
         <v>41</v>
@@ -2557,7 +2927,7 @@
         <v>186</v>
       </c>
       <c r="E45" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>143</v>
@@ -2565,10 +2935,10 @@
     </row>
     <row r="46" spans="3:6">
       <c r="D46" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E46" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>144</v>
@@ -2584,7 +2954,7 @@
     </row>
     <row r="48" spans="3:6">
       <c r="D48" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>146</v>
@@ -2600,7 +2970,7 @@
     </row>
     <row r="50" spans="4:6">
       <c r="D50" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>151</v>
@@ -2653,7 +3023,7 @@
     </row>
     <row r="60" spans="4:6">
       <c r="F60" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="61" spans="4:6">
@@ -2663,37 +3033,37 @@
     </row>
     <row r="62" spans="4:6">
       <c r="F62" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="63" spans="4:6">
       <c r="F63" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="64" spans="4:6">
       <c r="F64" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="65" spans="6:6">
       <c r="F65" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="66" spans="6:6">
       <c r="F66" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="67" spans="6:6">
       <c r="F67" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="68" spans="6:6">
       <c r="F68" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="69" spans="6:6">
@@ -2703,47 +3073,57 @@
     </row>
     <row r="70" spans="6:6">
       <c r="F70" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="71" spans="6:6">
       <c r="F71" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="72" spans="6:6">
       <c r="F72" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="73" spans="6:6">
       <c r="F73" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="74" spans="6:6">
       <c r="F74" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="75" spans="6:6">
       <c r="F75" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="76" spans="6:6">
       <c r="F76" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="77" spans="6:6">
       <c r="F77" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="78" spans="6:6">
       <c r="F78" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
+      </c>
+    </row>
+    <row r="79" spans="6:6">
+      <c r="F79" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="80" spans="6:6">
+      <c r="F80" s="1" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="84" spans="6:6">
@@ -2979,122 +3359,122 @@
     </row>
     <row r="130" spans="6:6">
       <c r="F130" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="131" spans="6:6">
       <c r="F131" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="132" spans="6:6">
       <c r="F132" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="133" spans="6:6">
       <c r="F133" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="134" spans="6:6" ht="30">
       <c r="F134" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="135" spans="6:6">
       <c r="F135" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="136" spans="6:6">
       <c r="F136" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="137" spans="6:6">
       <c r="F137" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="138" spans="6:6">
       <c r="F138" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="139" spans="6:6">
       <c r="F139" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="140" spans="6:6">
+      <c r="F140" s="4" t="s">
         <v>246</v>
-      </c>
-    </row>
-    <row r="140" spans="6:6" ht="30">
-      <c r="F140" s="4" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="141" spans="6:6">
       <c r="F141" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="142" spans="6:6">
       <c r="F142" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="143" spans="6:6">
       <c r="F143" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="144" spans="6:6">
       <c r="F144" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="145" spans="6:6" ht="30">
       <c r="F145" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="146" spans="6:6">
       <c r="F146" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="147" spans="6:6">
       <c r="F147" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="148" spans="6:6">
       <c r="F148" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="149" spans="6:6">
       <c r="F149" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="150" spans="6:6">
       <c r="F150" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="151" spans="6:6">
       <c r="F151" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="152" spans="6:6">
       <c r="F152" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="153" spans="6:6">
       <c r="F153" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="154" spans="6:6">
@@ -3178,277 +3558,277 @@
     </row>
     <row r="182" spans="6:6">
       <c r="F182" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="183" spans="6:6">
       <c r="F183" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="185" spans="6:6">
       <c r="F185" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="186" spans="6:6">
       <c r="F186" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="188" spans="6:6">
       <c r="F188" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="189" spans="6:6">
       <c r="F189" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="191" spans="6:6">
       <c r="F191" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="193" spans="6:6">
       <c r="F193" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="194" spans="6:6">
       <c r="F194" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="195" spans="6:6">
       <c r="F195" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="196" spans="6:6">
       <c r="F196" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="198" spans="6:6">
       <c r="F198" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="199" spans="6:6">
       <c r="F199" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="201" spans="6:6">
       <c r="F201" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="202" spans="6:6">
       <c r="F202" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="204" spans="6:6">
       <c r="F204" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="206" spans="6:6">
       <c r="F206" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="208" spans="6:6">
       <c r="F208" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="209" spans="6:6">
       <c r="F209" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="211" spans="6:6">
       <c r="F211" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="212" spans="6:6">
       <c r="F212" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="214" spans="6:6">
       <c r="F214" s="1" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="215" spans="6:6">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="215" spans="6:6" ht="30">
       <c r="F215" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="216" spans="6:6">
       <c r="F216" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="217" spans="6:6">
       <c r="F217" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="219" spans="6:6">
       <c r="F219" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="221" spans="6:6">
       <c r="F221" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="222" spans="6:6">
       <c r="F222" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="223" spans="6:6">
       <c r="F223" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="224" spans="6:6">
       <c r="F224" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="225" spans="6:6">
       <c r="F225" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="226" spans="6:6">
       <c r="F226" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="227" spans="6:6">
       <c r="F227" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="229" spans="6:6">
       <c r="F229" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="230" spans="6:6">
       <c r="F230" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="231" spans="6:6">
       <c r="F231" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="232" spans="6:6">
       <c r="F232" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="233" spans="6:6">
       <c r="F233" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="234" spans="6:6">
       <c r="F234" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="236" spans="6:6">
       <c r="F236" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="238" spans="6:6">
       <c r="F238" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="239" spans="6:6">
       <c r="F239" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="240" spans="6:6">
       <c r="F240" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="242" spans="6:6">
       <c r="F242" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="243" spans="6:6">
       <c r="F243" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="244" spans="6:6">
       <c r="F244" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="246" spans="6:6">
       <c r="F246" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="247" spans="6:6">
       <c r="F247" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="249" spans="6:6">
       <c r="F249" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="250" spans="6:6">
       <c r="F250" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="251" spans="6:6">
       <c r="F251" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="252" spans="6:6">
       <c r="F252" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="254" spans="6:6">
       <c r="F254" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="256" spans="6:6">
       <c r="F256" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="257" spans="6:6">
       <c r="F257" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
   </sheetData>
@@ -3457,7 +3837,108 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFB16DD3-E58E-4179-A21F-1F0CFCA23A8F}">
+  <dimension ref="B2:C19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="73.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3">
+      <c r="B2" t="s">
+        <v>428</v>
+      </c>
+      <c r="C2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" t="s">
+        <v>430</v>
+      </c>
+      <c r="C4" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" t="s">
+        <v>431</v>
+      </c>
+      <c r="C5" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" t="s">
+        <v>432</v>
+      </c>
+      <c r="C6" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="B15" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="B16" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>441</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3855EA0-DC9D-4DA0-A79D-468A9B802C64}">
   <dimension ref="B3:D17"/>
   <sheetViews>
@@ -3473,51 +3954,51 @@
   <sheetData>
     <row r="3" spans="2:4">
       <c r="B3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D3" t="s">
         <v>260</v>
-      </c>
-      <c r="D3" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="18.75" customHeight="1">
       <c r="B6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="31.5">
       <c r="B14" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="30">
       <c r="B15" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="16" spans="2:4">
       <c r="B16" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -3526,30 +4007,33 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB68017E-54A1-479D-B0B2-E8E6FCCA6356}">
-  <dimension ref="B2:D2"/>
+  <dimension ref="B2:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="25.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="28" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4">
+    <row r="2" spans="2:5">
       <c r="B2" t="s">
+        <v>427</v>
+      </c>
+      <c r="C2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D2" t="s">
         <v>258</v>
       </c>
-      <c r="C2" t="s">
-        <v>259</v>
-      </c>
-      <c r="D2" t="s">
-        <v>269</v>
+      <c r="E2" t="s">
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -3557,158 +4041,243 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8807BCAA-CD11-417E-B2D4-30513A7D4983}">
-  <dimension ref="B2:E122"/>
+  <dimension ref="B2:F133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="43.7109375" customWidth="1"/>
+    <col min="2" max="2" width="65.85546875" customWidth="1"/>
     <col min="3" max="3" width="28" customWidth="1"/>
     <col min="4" max="4" width="28.42578125" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
+    <col min="6" max="6" width="51.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="20.25" thickBot="1">
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="2:6">
+      <c r="B2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C2" t="s">
+        <v>377</v>
+      </c>
+      <c r="D2" t="s">
+        <v>378</v>
+      </c>
+      <c r="E2" t="s">
+        <v>385</v>
+      </c>
+      <c r="F2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" t="s">
+        <v>379</v>
+      </c>
+      <c r="C3" t="s">
+        <v>381</v>
+      </c>
+      <c r="D3" t="s">
+        <v>384</v>
+      </c>
+      <c r="E3" t="s">
+        <v>386</v>
+      </c>
+      <c r="F3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" t="s">
+        <v>380</v>
+      </c>
+      <c r="C4" t="s">
+        <v>382</v>
+      </c>
+      <c r="D4" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="20.25" thickBot="1">
+      <c r="B11" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="21" thickTop="1" thickBot="1">
+      <c r="B12" s="5"/>
+    </row>
+    <row r="13" spans="2:6" ht="15.75" thickTop="1">
+      <c r="B13" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" ht="15.75" thickTop="1"/>
-    <row r="4" spans="2:5">
-      <c r="B4" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5">
-      <c r="B6" s="1"/>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="B9" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5">
-      <c r="B10" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="B11" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="B12" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5">
-      <c r="B14" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5">
-      <c r="B15" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5">
-      <c r="B16" t="s">
-        <v>199</v>
-      </c>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" t="s">
-        <v>201</v>
-      </c>
+      <c r="B17" s="1"/>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="51" spans="2:2">
-      <c r="B51" s="2"/>
-    </row>
-    <row r="82" spans="2:2">
-      <c r="B82" s="2"/>
-    </row>
-    <row r="99" spans="2:2">
-      <c r="B99" s="2"/>
-    </row>
-    <row r="100" spans="2:2">
-      <c r="B100" s="2"/>
-    </row>
-    <row r="101" spans="2:2">
-      <c r="B101" s="2"/>
-    </row>
-    <row r="102" spans="2:2">
-      <c r="B102" s="2"/>
-    </row>
-    <row r="103" spans="2:2">
-      <c r="B103" s="2"/>
-    </row>
-    <row r="104" spans="2:2">
-      <c r="B104" s="2"/>
-    </row>
-    <row r="105" spans="2:2">
-      <c r="B105" s="2"/>
-    </row>
-    <row r="106" spans="2:2">
-      <c r="B106" s="2"/>
-    </row>
-    <row r="107" spans="2:2">
-      <c r="B107" s="2"/>
-    </row>
-    <row r="108" spans="2:2">
-      <c r="B108" s="2"/>
-    </row>
-    <row r="109" spans="2:2">
-      <c r="B109" s="2"/>
+    <row r="34" spans="2:2">
+      <c r="B34" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" s="2"/>
+    </row>
+    <row r="93" spans="2:2">
+      <c r="B93" s="2"/>
     </row>
     <row r="110" spans="2:2">
       <c r="B110" s="2"/>
@@ -3748,18 +4317,79 @@
     </row>
     <row r="122" spans="2:2">
       <c r="B122" s="2"/>
+    </row>
+    <row r="123" spans="2:2">
+      <c r="B123" s="2"/>
+    </row>
+    <row r="124" spans="2:2">
+      <c r="B124" s="2"/>
+    </row>
+    <row r="125" spans="2:2">
+      <c r="B125" s="2"/>
+    </row>
+    <row r="126" spans="2:2">
+      <c r="B126" s="2"/>
+    </row>
+    <row r="127" spans="2:2">
+      <c r="B127" s="2"/>
+    </row>
+    <row r="128" spans="2:2">
+      <c r="B128" s="2"/>
+    </row>
+    <row r="129" spans="2:2">
+      <c r="B129" s="2"/>
+    </row>
+    <row r="130" spans="2:2">
+      <c r="B130" s="2"/>
+    </row>
+    <row r="131" spans="2:2">
+      <c r="B131" s="2"/>
+    </row>
+    <row r="132" spans="2:2">
+      <c r="B132" s="2"/>
+    </row>
+    <row r="133" spans="2:2">
+      <c r="B133" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B19F124-6FB6-4AB6-87E3-71D446D765D9}">
+  <dimension ref="B2:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="2:5" ht="20.25" thickBot="1">
+      <c r="B2" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="2:5" ht="15.75" thickTop="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65408CBA-F719-4384-9761-BC7C35558BAF}">
   <dimension ref="B2:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3772,25 +4402,25 @@
   <sheetData>
     <row r="2" spans="2:5" ht="20.25" thickBot="1">
       <c r="B2" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>224</v>
-      </c>
       <c r="D2" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>306</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="15.75" thickTop="1"/>
     <row r="4" spans="2:5">
       <c r="D4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -3803,10 +4433,10 @@
     </row>
     <row r="6" spans="2:5">
       <c r="D6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="7" spans="2:5">
@@ -3816,138 +4446,138 @@
     </row>
     <row r="8" spans="2:5">
       <c r="D8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="2:5">
       <c r="D9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="10" spans="2:5">
       <c r="E10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="11" spans="2:5">
       <c r="D11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="12" spans="2:5">
       <c r="D12" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E12" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="14" spans="2:5">
       <c r="D14" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E14" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="15" spans="2:5">
       <c r="D15" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="16" spans="2:5">
       <c r="D16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="17" spans="4:5">
       <c r="D17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E17" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="18" spans="4:5">
       <c r="E18" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="19" spans="4:5">
       <c r="D19" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="20" spans="4:5">
       <c r="D20" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E20" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="21" spans="4:5">
       <c r="D21" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E21" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="22" spans="4:5">
       <c r="D22" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E22" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="24" spans="4:5">
       <c r="D24" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E24" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="25" spans="4:5">
       <c r="D25" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E25" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="26" spans="4:5">
       <c r="D26" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="27" spans="4:5">
       <c r="E27" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="28" spans="4:5">
       <c r="D28" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="29" spans="4:5">
       <c r="D29" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E29" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -3956,7 +4586,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93956EA2-477E-4846-8BA8-A19A7B4BF40D}">
   <dimension ref="B2:B21"/>
   <sheetViews>
@@ -4054,41 +4684,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E96AF171-92C7-4E76-8196-8C5772FF6093}">
-  <dimension ref="B2:C7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="2" spans="2:3" ht="20.25" thickBot="1">
-      <c r="B2" s="5" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" ht="15.75" thickTop="1"/>
-    <row r="6" spans="2:3" ht="20.25" thickBot="1">
-      <c r="C6" s="5"/>
-    </row>
-    <row r="7" spans="2:3" ht="15.75" thickTop="1"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77EF76F1-92CF-42FF-804A-CBD6B162832A}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Python.xlsx
+++ b/Python.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED4EFE4-C0EA-4496-8644-6DB2CB69DF08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{293C7EF0-DEF5-4D85-B9A0-600EB38AA564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="633" activeTab="2" xr2:uid="{570A2267-BD17-432D-9B9F-8D7ACBFD45E8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="633" firstSheet="2" activeTab="3" xr2:uid="{570A2267-BD17-432D-9B9F-8D7ACBFD45E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Essential Python" sheetId="10" r:id="rId1"/>
     <sheet name="Python Programming" sheetId="1" r:id="rId2"/>
     <sheet name="R" sheetId="11" r:id="rId3"/>
-    <sheet name="Data Cleaning" sheetId="6" r:id="rId4"/>
-    <sheet name="Scientific Computing" sheetId="7" r:id="rId5"/>
-    <sheet name="Visualisation" sheetId="3" r:id="rId6"/>
-    <sheet name="Networking" sheetId="9" r:id="rId7"/>
-    <sheet name="Machine Learning" sheetId="2" r:id="rId8"/>
-    <sheet name="Fintech" sheetId="4" r:id="rId9"/>
-    <sheet name="NLP" sheetId="5" r:id="rId10"/>
-    <sheet name="Deep Learning" sheetId="8" r:id="rId11"/>
+    <sheet name="Web Scraping" sheetId="12" r:id="rId4"/>
+    <sheet name="Data Cleaning" sheetId="6" r:id="rId5"/>
+    <sheet name="Scientific Computing" sheetId="7" r:id="rId6"/>
+    <sheet name="Visualisation" sheetId="3" r:id="rId7"/>
+    <sheet name="Networking" sheetId="9" r:id="rId8"/>
+    <sheet name="Machine Learning" sheetId="2" r:id="rId9"/>
+    <sheet name="Fintech" sheetId="4" r:id="rId10"/>
+    <sheet name="NLP" sheetId="5" r:id="rId11"/>
+    <sheet name="Deep Learning" sheetId="8" r:id="rId12"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="491">
   <si>
     <t>List</t>
   </si>
@@ -1832,6 +1833,141 @@
   </si>
   <si>
     <t>?cars</t>
+  </si>
+  <si>
+    <t>BeautifulSoup</t>
+  </si>
+  <si>
+    <t>sns.pairplot()</t>
+  </si>
+  <si>
+    <t>sns.displot(df['selling_price'])</t>
+  </si>
+  <si>
+    <t>sns.heatmap(df.corr())</t>
+  </si>
+  <si>
+    <t>sns.heatmap(df.corr() , annot= True)</t>
+  </si>
+  <si>
+    <t>from sklearn.model_selection import train_test_split</t>
+  </si>
+  <si>
+    <t>X_train , X_test , Y_train , Y_test = train_test_split(X , Y , test_size= 0.4 , random_state=101)</t>
+  </si>
+  <si>
+    <t>lm = LinearRegression()</t>
+  </si>
+  <si>
+    <t>lm.fit(X_train , Y_train)</t>
+  </si>
+  <si>
+    <t>print(lm.intercept_)</t>
+  </si>
+  <si>
+    <t>lm.coef_</t>
+  </si>
+  <si>
+    <t>X_train.columns</t>
+  </si>
+  <si>
+    <t>cdf = pd.DataFrame(lm.coef_ , X.columns , columns = ['Coeff'])</t>
+  </si>
+  <si>
+    <t>cdf</t>
+  </si>
+  <si>
+    <t>Predictions</t>
+  </si>
+  <si>
+    <t>predictions = lm.predict(X_test)</t>
+  </si>
+  <si>
+    <t>plt.scatter(Y_test , predictions)</t>
+  </si>
+  <si>
+    <t>sns.displot((Y_test - predictions))</t>
+  </si>
+  <si>
+    <t>from sklearn import metrics</t>
+  </si>
+  <si>
+    <t>metrics.mean_absolute_error(Y_test , predictions)</t>
+  </si>
+  <si>
+    <t>metrics.mean_squared_error(Y_test , predictions)</t>
+  </si>
+  <si>
+    <t>np.sqrt(metrics.mean_squared_error(Y_test , predictions))</t>
+  </si>
+  <si>
+    <t>yahoofinancials</t>
+  </si>
+  <si>
+    <t>requests</t>
+  </si>
+  <si>
+    <t>import requests</t>
+  </si>
+  <si>
+    <t>url = "https://finance.yahoo.com/quote/AAPL?p=AAPL"</t>
+  </si>
+  <si>
+    <t>response = requests.get(url)</t>
+  </si>
+  <si>
+    <t>t = response.text</t>
+  </si>
+  <si>
+    <t>print(response.status_code)</t>
+  </si>
+  <si>
+    <t>ind = t.index('Previous Close')</t>
+  </si>
+  <si>
+    <t>reducedText = t[ind : ind+200] #starts from the index then next 200 characters</t>
+  </si>
+  <si>
+    <t>reducedText3 = t[ind:].split('&lt;/td&gt;')[1]</t>
+  </si>
+  <si>
+    <t>val = reducedText3.split('&gt;')[-1]</t>
+  </si>
+  <si>
+    <t>print(val)</t>
+  </si>
+  <si>
+    <t>from bs4 import BeautifulSoup</t>
+  </si>
+  <si>
+    <t>soup = BeautifulSoup(t , features='html.parser')</t>
+  </si>
+  <si>
+    <t>trs = soup.find_all('tr')</t>
+  </si>
+  <si>
+    <t>print(trs[0])</t>
+  </si>
+  <si>
+    <t>print(trs[0].text)</t>
+  </si>
+  <si>
+    <t>print(trs[0].td)</t>
+  </si>
+  <si>
+    <t>print(trs[0].td.text)</t>
+  </si>
+  <si>
+    <t>print(trs[0].contents)</t>
+  </si>
+  <si>
+    <t>print(trs[0].contents[1].text)</t>
+  </si>
+  <si>
+    <t>trs = soup.find_all('td' , class_ = 'C($primaryColor) W(51%)')</t>
+  </si>
+  <si>
+    <t>print(trs[0].find('td' , attrs={'data-test':'PREV_CLOSE-value'}).text)</t>
   </si>
 </sst>
 </file>
@@ -2383,6 +2519,109 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93956EA2-477E-4846-8BA8-A19A7B4BF40D}">
+  <dimension ref="B2:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="54.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" ht="20.25" thickBot="1">
+      <c r="B2" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="15.75" thickTop="1"/>
+    <row r="4" spans="2:3">
+      <c r="B4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="B14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="B15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="B16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E96AF171-92C7-4E76-8196-8C5772FF6093}">
   <dimension ref="B2:D3"/>
   <sheetViews>
@@ -2407,7 +2646,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77EF76F1-92CF-42FF-804A-CBD6B162832A}">
   <dimension ref="B2:C3"/>
   <sheetViews>
@@ -3841,7 +4080,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFB16DD3-E58E-4179-A21F-1F0CFCA23A8F}">
   <dimension ref="B2:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -3939,6 +4178,151 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05039250-D920-4BFE-812D-BDC7C0931859}">
+  <dimension ref="B2:C28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27:C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="71.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3">
+      <c r="B2" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" t="s">
+        <v>469</v>
+      </c>
+      <c r="C7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" t="s">
+        <v>474</v>
+      </c>
+      <c r="C9" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="C10" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" t="s">
+        <v>473</v>
+      </c>
+      <c r="C11" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12" t="s">
+        <v>475</v>
+      </c>
+      <c r="C12" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13" t="s">
+        <v>476</v>
+      </c>
+      <c r="C13" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="B14" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="B15" t="s">
+        <v>478</v>
+      </c>
+      <c r="C15" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="B16" t="s">
+        <v>479</v>
+      </c>
+      <c r="C16" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3">
+      <c r="C25" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3">
+      <c r="C27" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3">
+      <c r="C28" t="s">
+        <v>488</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3855EA0-DC9D-4DA0-A79D-468A9B802C64}">
   <dimension ref="B3:D17"/>
   <sheetViews>
@@ -4007,7 +4391,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB68017E-54A1-479D-B0B2-E8E6FCCA6356}">
   <dimension ref="B2:E2"/>
   <sheetViews>
@@ -4041,18 +4425,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8807BCAA-CD11-417E-B2D4-30513A7D4983}">
   <dimension ref="B2:F133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="65.85546875" customWidth="1"/>
-    <col min="3" max="3" width="28" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.42578125" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="6" width="51.7109375" customWidth="1"/>
@@ -4150,60 +4534,72 @@
         <v>191</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="2:3">
       <c r="B17" s="1"/>
     </row>
-    <row r="20" spans="2:2">
+    <row r="20" spans="2:3">
       <c r="B20" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="21" spans="2:2">
+      <c r="C20" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
       <c r="B21" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="22" spans="2:2">
+      <c r="C21" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
       <c r="B22" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="23" spans="2:2">
+      <c r="C22" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
       <c r="B23" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="25" spans="2:2">
+      <c r="C23" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
       <c r="B25" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="26" spans="2:2">
+    <row r="26" spans="2:3">
       <c r="B26" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="27" spans="2:2">
+    <row r="27" spans="2:3">
       <c r="B27" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="28" spans="2:2">
+    <row r="28" spans="2:3">
       <c r="B28" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="30" spans="2:2">
+    <row r="30" spans="2:3">
       <c r="B30" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="2:3">
       <c r="B31" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="32" spans="2:2">
+    <row r="32" spans="2:3">
       <c r="B32" t="s">
         <v>202</v>
       </c>
@@ -4356,7 +4752,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B19F124-6FB6-4AB6-87E3-71D446D765D9}">
   <dimension ref="B2:E3"/>
   <sheetViews>
@@ -4384,17 +4780,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65408CBA-F719-4384-9761-BC7C35558BAF}">
   <dimension ref="B2:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="29.5703125" customWidth="1"/>
+    <col min="2" max="2" width="82.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.85546875" customWidth="1"/>
     <col min="4" max="4" width="71.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="55.7109375" bestFit="1" customWidth="1"/>
@@ -4424,6 +4820,9 @@
       </c>
     </row>
     <row r="5" spans="2:5">
+      <c r="B5" t="s">
+        <v>451</v>
+      </c>
       <c r="D5" t="s">
         <v>25</v>
       </c>
@@ -4440,11 +4839,17 @@
       </c>
     </row>
     <row r="7" spans="2:5">
+      <c r="B7" t="s">
+        <v>451</v>
+      </c>
       <c r="E7" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="8" spans="2:5">
+      <c r="B8" t="s">
+        <v>452</v>
+      </c>
       <c r="D8" t="s">
         <v>288</v>
       </c>
@@ -4458,11 +4863,17 @@
       </c>
     </row>
     <row r="10" spans="2:5">
+      <c r="B10" t="s">
+        <v>307</v>
+      </c>
       <c r="E10" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="11" spans="2:5">
+      <c r="B11" t="s">
+        <v>453</v>
+      </c>
       <c r="D11" t="s">
         <v>290</v>
       </c>
@@ -4471,6 +4882,9 @@
       </c>
     </row>
     <row r="12" spans="2:5">
+      <c r="B12" t="s">
+        <v>454</v>
+      </c>
       <c r="D12" t="s">
         <v>291</v>
       </c>
@@ -4478,7 +4892,15 @@
         <v>289</v>
       </c>
     </row>
+    <row r="13" spans="2:5">
+      <c r="B13" t="s">
+        <v>455</v>
+      </c>
+    </row>
     <row r="14" spans="2:5">
+      <c r="B14" t="s">
+        <v>456</v>
+      </c>
       <c r="D14" t="s">
         <v>292</v>
       </c>
@@ -4487,11 +4909,17 @@
       </c>
     </row>
     <row r="15" spans="2:5">
+      <c r="B15" t="s">
+        <v>457</v>
+      </c>
       <c r="D15" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="16" spans="2:5">
+      <c r="B16" t="s">
+        <v>458</v>
+      </c>
       <c r="D16" t="s">
         <v>294</v>
       </c>
@@ -4499,7 +4927,10 @@
         <v>291</v>
       </c>
     </row>
-    <row r="17" spans="4:5">
+    <row r="17" spans="2:5">
+      <c r="B17" t="s">
+        <v>459</v>
+      </c>
       <c r="D17" t="s">
         <v>295</v>
       </c>
@@ -4507,17 +4938,20 @@
         <v>310</v>
       </c>
     </row>
-    <row r="18" spans="4:5">
+    <row r="18" spans="2:5">
       <c r="E18" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="19" spans="4:5">
+    <row r="19" spans="2:5">
+      <c r="B19" t="s">
+        <v>460</v>
+      </c>
       <c r="D19" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="20" spans="4:5">
+    <row r="20" spans="2:5">
       <c r="D20" t="s">
         <v>297</v>
       </c>
@@ -4525,7 +4959,10 @@
         <v>312</v>
       </c>
     </row>
-    <row r="21" spans="4:5">
+    <row r="21" spans="2:5">
+      <c r="B21" t="s">
+        <v>461</v>
+      </c>
       <c r="D21" t="s">
         <v>298</v>
       </c>
@@ -4533,7 +4970,10 @@
         <v>315</v>
       </c>
     </row>
-    <row r="22" spans="4:5">
+    <row r="22" spans="2:5">
+      <c r="B22" t="s">
+        <v>462</v>
+      </c>
       <c r="D22" t="s">
         <v>299</v>
       </c>
@@ -4541,7 +4981,12 @@
         <v>313</v>
       </c>
     </row>
-    <row r="24" spans="4:5">
+    <row r="23" spans="2:5">
+      <c r="B23" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
       <c r="D24" t="s">
         <v>300</v>
       </c>
@@ -4549,7 +4994,10 @@
         <v>316</v>
       </c>
     </row>
-    <row r="25" spans="4:5">
+    <row r="25" spans="2:5">
+      <c r="B25" t="s">
+        <v>464</v>
+      </c>
       <c r="D25" t="s">
         <v>301</v>
       </c>
@@ -4557,22 +5005,31 @@
         <v>299</v>
       </c>
     </row>
-    <row r="26" spans="4:5">
+    <row r="26" spans="2:5">
+      <c r="B26" t="s">
+        <v>465</v>
+      </c>
       <c r="D26" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="27" spans="4:5">
+    <row r="27" spans="2:5">
+      <c r="B27" t="s">
+        <v>466</v>
+      </c>
       <c r="E27" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="28" spans="4:5">
+    <row r="28" spans="2:5">
+      <c r="B28" t="s">
+        <v>467</v>
+      </c>
       <c r="D28" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="29" spans="4:5">
+    <row r="29" spans="2:5">
       <c r="D29" t="s">
         <v>304</v>
       </c>
@@ -4584,104 +5041,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93956EA2-477E-4846-8BA8-A19A7B4BF40D}">
-  <dimension ref="B2:B21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="54.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="52" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:2" ht="20.25" thickBot="1">
-      <c r="B2" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" ht="15.75" thickTop="1"/>
-    <row r="4" spans="2:2">
-      <c r="B4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2">
-      <c r="B7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2">
-      <c r="B8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2">
-      <c r="B9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2">
-      <c r="B10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2">
-      <c r="B11" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2">
-      <c r="B12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2">
-      <c r="B13" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2">
-      <c r="B14" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2">
-      <c r="B15" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2">
-      <c r="B16" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" t="s">
-        <v>115</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Python.xlsx
+++ b/Python.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{293C7EF0-DEF5-4D85-B9A0-600EB38AA564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87944422-0B4E-40F4-9AF0-28E1DDD336C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="633" firstSheet="2" activeTab="3" xr2:uid="{570A2267-BD17-432D-9B9F-8D7ACBFD45E8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="633" activeTab="1" xr2:uid="{570A2267-BD17-432D-9B9F-8D7ACBFD45E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Essential Python" sheetId="10" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="494">
   <si>
     <t>List</t>
   </si>
@@ -1968,6 +1968,15 @@
   </si>
   <si>
     <t>print(trs[0].find('td' , attrs={'data-test':'PREV_CLOSE-value'}).text)</t>
+  </si>
+  <si>
+    <t>np.geomspace()</t>
+  </si>
+  <si>
+    <t>np.logspace()</t>
+  </si>
+  <si>
+    <t>np.meshgrid()</t>
   </si>
 </sst>
 </file>
@@ -2678,8 +2687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79E9A589-AD7A-4E88-B929-890A4FD0CF44}">
   <dimension ref="B2:F257"/>
   <sheetViews>
-    <sheetView topLeftCell="D115" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="D19" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2752,7 +2761,7 @@
         <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>190</v>
+        <v>492</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>5</v>
@@ -2769,7 +2778,7 @@
         <v>57</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>190</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>6</v>
@@ -2783,7 +2792,7 @@
         <v>58</v>
       </c>
       <c r="E11" t="s">
-        <v>28</v>
+        <v>491</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>16</v>
@@ -2797,7 +2806,7 @@
         <v>59</v>
       </c>
       <c r="E12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>7</v>
@@ -2811,7 +2820,7 @@
         <v>60</v>
       </c>
       <c r="E13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>15</v>
@@ -2825,7 +2834,7 @@
         <v>179</v>
       </c>
       <c r="E14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>8</v>
@@ -2839,7 +2848,7 @@
         <v>180</v>
       </c>
       <c r="E15" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>9</v>
@@ -2853,7 +2862,7 @@
         <v>239</v>
       </c>
       <c r="E16" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>10</v>
@@ -2867,7 +2876,7 @@
         <v>240</v>
       </c>
       <c r="E17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>11</v>
@@ -2881,7 +2890,7 @@
         <v>241</v>
       </c>
       <c r="E18" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>12</v>
@@ -2892,7 +2901,7 @@
         <v>91</v>
       </c>
       <c r="E19" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>13</v>
@@ -2903,7 +2912,7 @@
         <v>92</v>
       </c>
       <c r="E20" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>141</v>
@@ -2917,7 +2926,7 @@
         <v>189</v>
       </c>
       <c r="E21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>14</v>
@@ -2928,7 +2937,7 @@
         <v>211</v>
       </c>
       <c r="E22" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>17</v>
@@ -2939,7 +2948,7 @@
         <v>269</v>
       </c>
       <c r="E23" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>147</v>
@@ -2953,7 +2962,7 @@
         <v>182</v>
       </c>
       <c r="E24" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>62</v>
@@ -2961,7 +2970,7 @@
     </row>
     <row r="25" spans="3:6">
       <c r="E25" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>63</v>
@@ -2972,7 +2981,7 @@
         <v>181</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>64</v>
@@ -2983,7 +2992,7 @@
         <v>235</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>65</v>
@@ -2994,7 +3003,7 @@
         <v>236</v>
       </c>
       <c r="E28" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>71</v>
@@ -3005,7 +3014,7 @@
         <v>226</v>
       </c>
       <c r="E29" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>72</v>
@@ -3019,7 +3028,7 @@
         <v>237</v>
       </c>
       <c r="E30" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>74</v>
@@ -3033,7 +3042,7 @@
         <v>238</v>
       </c>
       <c r="E31" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>73</v>
@@ -3044,7 +3053,7 @@
         <v>228</v>
       </c>
       <c r="E32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>76</v>
@@ -3055,7 +3064,7 @@
         <v>229</v>
       </c>
       <c r="E33" t="s">
-        <v>268</v>
+        <v>49</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>77</v>
@@ -3066,7 +3075,7 @@
         <v>183</v>
       </c>
       <c r="E34" t="s">
-        <v>283</v>
+        <v>50</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>93</v>
@@ -3077,7 +3086,7 @@
         <v>184</v>
       </c>
       <c r="E35" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>94</v>
@@ -3087,6 +3096,9 @@
       <c r="D36" s="3" t="s">
         <v>185</v>
       </c>
+      <c r="E36" t="s">
+        <v>283</v>
+      </c>
       <c r="F36" s="1" t="s">
         <v>116</v>
       </c>
@@ -3095,6 +3107,9 @@
       <c r="D37" s="3" t="s">
         <v>186</v>
       </c>
+      <c r="E37" t="s">
+        <v>285</v>
+      </c>
       <c r="F37" s="1" t="s">
         <v>117</v>
       </c>
@@ -3103,6 +3118,9 @@
       <c r="D38" s="3" t="s">
         <v>187</v>
       </c>
+      <c r="E38" t="s">
+        <v>493</v>
+      </c>
       <c r="F38" s="1" t="s">
         <v>121</v>
       </c>
@@ -3132,9 +3150,6 @@
       <c r="D42" t="s">
         <v>230</v>
       </c>
-      <c r="E42" t="s">
-        <v>29</v>
-      </c>
       <c r="F42" s="1" t="s">
         <v>126</v>
       </c>
@@ -3143,9 +3158,6 @@
       <c r="D43" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="E43" t="s">
-        <v>38</v>
-      </c>
       <c r="F43" s="1" t="s">
         <v>136</v>
       </c>
@@ -3155,7 +3167,7 @@
         <v>231</v>
       </c>
       <c r="E44" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>138</v>
@@ -3166,7 +3178,7 @@
         <v>186</v>
       </c>
       <c r="E45" t="s">
-        <v>284</v>
+        <v>38</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>143</v>
@@ -3177,7 +3189,7 @@
         <v>232</v>
       </c>
       <c r="E46" t="s">
-        <v>286</v>
+        <v>41</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>144</v>
@@ -3187,6 +3199,9 @@
       <c r="D47" s="3" t="s">
         <v>186</v>
       </c>
+      <c r="E47" t="s">
+        <v>284</v>
+      </c>
       <c r="F47" s="1" t="s">
         <v>145</v>
       </c>
@@ -3195,6 +3210,9 @@
       <c r="D48" s="3" t="s">
         <v>233</v>
       </c>
+      <c r="E48" t="s">
+        <v>286</v>
+      </c>
       <c r="F48" s="1" t="s">
         <v>146</v>
       </c>
@@ -3510,163 +3528,163 @@
         <v>156</v>
       </c>
     </row>
-    <row r="113" spans="5:6">
+    <row r="113" spans="6:6">
       <c r="F113" s="4" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="114" spans="5:6">
+    <row r="114" spans="6:6">
       <c r="F114" s="4" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="115" spans="5:6">
+    <row r="115" spans="6:6">
       <c r="F115" s="4" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="116" spans="5:6">
+    <row r="116" spans="6:6">
       <c r="F116" s="4" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="117" spans="5:6">
+    <row r="117" spans="6:6">
       <c r="F117" s="4" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="118" spans="5:6">
+    <row r="118" spans="6:6">
       <c r="F118" s="4" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="119" spans="5:6">
+    <row r="119" spans="6:6">
       <c r="F119" s="4" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="120" spans="5:6">
+    <row r="120" spans="6:6">
       <c r="F120" s="4" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="121" spans="5:6">
+    <row r="121" spans="6:6">
       <c r="F121" s="4" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="122" spans="5:6">
+    <row r="122" spans="6:6">
       <c r="F122" s="4" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="123" spans="5:6">
+    <row r="123" spans="6:6">
       <c r="F123" s="4" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="124" spans="5:6">
+    <row r="124" spans="6:6">
       <c r="F124" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="125" spans="5:6">
+    <row r="125" spans="6:6">
       <c r="F125" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="126" spans="5:6">
+    <row r="126" spans="6:6">
       <c r="F126" s="4" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="127" spans="5:6">
-      <c r="E127" s="2"/>
+    <row r="127" spans="6:6">
       <c r="F127" s="4" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="128" spans="5:6">
+    <row r="128" spans="6:6">
       <c r="F128" s="4" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="129" spans="6:6">
+    <row r="129" spans="5:6">
+      <c r="E129" s="2"/>
       <c r="F129" s="4" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="130" spans="6:6">
+    <row r="130" spans="5:6">
       <c r="F130" s="4" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="131" spans="6:6">
+    <row r="131" spans="5:6">
       <c r="F131" s="4" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="132" spans="6:6">
+    <row r="132" spans="5:6">
       <c r="F132" s="4" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="133" spans="6:6">
+    <row r="133" spans="5:6">
       <c r="F133" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="134" spans="6:6" ht="30">
+    <row r="134" spans="5:6" ht="30">
       <c r="F134" s="4" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="135" spans="6:6">
+    <row r="135" spans="5:6">
       <c r="F135" s="4" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="136" spans="6:6">
+    <row r="136" spans="5:6">
       <c r="F136" s="4" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="137" spans="6:6">
+    <row r="137" spans="5:6">
       <c r="F137" s="4" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="138" spans="6:6">
+    <row r="138" spans="5:6">
       <c r="F138" s="4" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="139" spans="6:6">
+    <row r="139" spans="5:6">
       <c r="F139" s="4" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="140" spans="6:6">
+    <row r="140" spans="5:6">
       <c r="F140" s="4" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="141" spans="6:6">
+    <row r="141" spans="5:6">
       <c r="F141" s="4" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="142" spans="6:6">
+    <row r="142" spans="5:6">
       <c r="F142" s="4" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="143" spans="6:6">
+    <row r="143" spans="5:6">
       <c r="F143" s="4" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="144" spans="6:6">
+    <row r="144" spans="5:6">
       <c r="F144" s="4" t="s">
         <v>253</v>
       </c>
@@ -4181,7 +4199,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05039250-D920-4BFE-812D-BDC7C0931859}">
   <dimension ref="B2:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C27" sqref="C27:C28"/>
     </sheetView>
   </sheetViews>

--- a/Python.xlsx
+++ b/Python.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87944422-0B4E-40F4-9AF0-28E1DDD336C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C08659F1-A42C-4BA1-A3D1-A4265C64FBE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="633" activeTab="1" xr2:uid="{570A2267-BD17-432D-9B9F-8D7ACBFD45E8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="633" firstSheet="2" activeTab="11" xr2:uid="{570A2267-BD17-432D-9B9F-8D7ACBFD45E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Essential Python" sheetId="10" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="523">
   <si>
     <t>List</t>
   </si>
@@ -1977,6 +1977,93 @@
   </si>
   <si>
     <t>np.meshgrid()</t>
+  </si>
+  <si>
+    <t>sales.pivot_table()</t>
+  </si>
+  <si>
+    <t>sales.pivot_table(values='weekly_sales',index='type' , aggfunc=[np.mean , np.median])</t>
+  </si>
+  <si>
+    <t># Print the mean weekly_sales by department and type; fill missing values with 0s; sum all rows and cols</t>
+  </si>
+  <si>
+    <t>print(sales.pivot_table(values="weekly_sales", index="department", columns="type", fill_value=0,margins=True))</t>
+  </si>
+  <si>
+    <t>dogs.set_index('name')</t>
+  </si>
+  <si>
+    <t>sort_index()</t>
+  </si>
+  <si>
+    <t>dogs.reset_index()</t>
+  </si>
+  <si>
+    <t>np.arange(1,16).reshape(3,5)</t>
+  </si>
+  <si>
+    <t>np.tile([[1,2,3],[4,5,6]],[3,2])</t>
+  </si>
+  <si>
+    <t>np.random.seed(6)</t>
+  </si>
+  <si>
+    <t>a = np.array([12,-5,6,11,90,234])</t>
+  </si>
+  <si>
+    <t>np.random.choice(a , 5 ,replace = False)</t>
+  </si>
+  <si>
+    <t>np.random.randint(low = 6 , high = 50 , size=(3,4))</t>
+  </si>
+  <si>
+    <t>arr = [[1,2],[3,4]]</t>
+  </si>
+  <si>
+    <t>import torch</t>
+  </si>
+  <si>
+    <t>y = torch.tensor(arr)</t>
+  </si>
+  <si>
+    <t>torch.ones((2,3))</t>
+  </si>
+  <si>
+    <t>torch.rand(2,2)</t>
+  </si>
+  <si>
+    <t>torch.manual_seed(11)</t>
+  </si>
+  <si>
+    <t>#numpy to torch</t>
+  </si>
+  <si>
+    <t>torch_tensor = torch.from_numpy(np_array)</t>
+  </si>
+  <si>
+    <t>from torch.autograd import Variable</t>
+  </si>
+  <si>
+    <t>#Variables</t>
+  </si>
+  <si>
+    <t>a = Variable(torch.ones(2,2) , requires_grad=True)</t>
+  </si>
+  <si>
+    <t># Gradient</t>
+  </si>
+  <si>
+    <t>x = Variable(torch.tensor(5.0) , requires_grad=True)</t>
+  </si>
+  <si>
+    <t>y = 5 * (x + 1) ** 2</t>
+  </si>
+  <si>
+    <t>#result is 180 = 5 * ( 5 + 1 ) ** 2</t>
+  </si>
+  <si>
+    <t>o = 1/2 * torch.sum(y) #average of y</t>
   </si>
 </sst>
 </file>
@@ -2657,16 +2744,16 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77EF76F1-92CF-42FF-804A-CBD6B162832A}">
-  <dimension ref="B2:C3"/>
+  <dimension ref="B2:C32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="46" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="20.25" thickBot="1">
@@ -2678,6 +2765,91 @@
       </c>
     </row>
     <row r="3" spans="2:3" ht="15.75" thickTop="1"/>
+    <row r="5" spans="2:3">
+      <c r="C5" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="C6" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="C9" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="C12" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="C15" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="C16" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3">
+      <c r="C25" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3">
+      <c r="C27" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3">
+      <c r="C28" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3">
+      <c r="C29" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3">
+      <c r="C30" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3">
+      <c r="C32" t="s">
+        <v>522</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2687,8 +2859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79E9A589-AD7A-4E88-B929-890A4FD0CF44}">
   <dimension ref="B2:F257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D19" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView topLeftCell="D37" workbookViewId="0">
+      <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2696,7 +2868,7 @@
     <col min="2" max="2" width="32.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.140625" customWidth="1"/>
     <col min="4" max="4" width="64.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="52.42578125" customWidth="1"/>
+    <col min="5" max="5" width="147.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="132.85546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3129,6 +3301,9 @@
       <c r="D39" s="3" t="s">
         <v>186</v>
       </c>
+      <c r="E39" t="s">
+        <v>494</v>
+      </c>
       <c r="F39" s="1" t="s">
         <v>122</v>
       </c>
@@ -3137,11 +3312,17 @@
       <c r="D40" s="3" t="s">
         <v>188</v>
       </c>
+      <c r="E40" t="s">
+        <v>498</v>
+      </c>
       <c r="F40" s="1" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="41" spans="3:6">
+      <c r="E41" t="s">
+        <v>500</v>
+      </c>
       <c r="F41" s="1" t="s">
         <v>125</v>
       </c>
@@ -3150,6 +3331,9 @@
       <c r="D42" t="s">
         <v>230</v>
       </c>
+      <c r="E42" t="s">
+        <v>499</v>
+      </c>
       <c r="F42" s="1" t="s">
         <v>126</v>
       </c>
@@ -3166,9 +3350,6 @@
       <c r="D44" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="E44" t="s">
-        <v>29</v>
-      </c>
       <c r="F44" s="1" t="s">
         <v>138</v>
       </c>
@@ -3177,9 +3358,6 @@
       <c r="D45" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="E45" t="s">
-        <v>38</v>
-      </c>
       <c r="F45" s="1" t="s">
         <v>143</v>
       </c>
@@ -3188,9 +3366,6 @@
       <c r="D46" t="s">
         <v>232</v>
       </c>
-      <c r="E46" t="s">
-        <v>41</v>
-      </c>
       <c r="F46" s="1" t="s">
         <v>144</v>
       </c>
@@ -3199,9 +3374,6 @@
       <c r="D47" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="E47" t="s">
-        <v>284</v>
-      </c>
       <c r="F47" s="1" t="s">
         <v>145</v>
       </c>
@@ -3210,9 +3382,6 @@
       <c r="D48" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="E48" t="s">
-        <v>286</v>
-      </c>
       <c r="F48" s="1" t="s">
         <v>146</v>
       </c>
@@ -3229,31 +3398,49 @@
       <c r="D50" s="3" t="s">
         <v>234</v>
       </c>
+      <c r="E50" t="s">
+        <v>29</v>
+      </c>
       <c r="F50" s="1" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="51" spans="4:6">
+      <c r="E51" t="s">
+        <v>38</v>
+      </c>
       <c r="F51" s="1" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="52" spans="4:6">
+      <c r="E52" t="s">
+        <v>41</v>
+      </c>
       <c r="F52" s="4" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="53" spans="4:6">
+      <c r="E53" t="s">
+        <v>284</v>
+      </c>
       <c r="F53" s="1" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="54" spans="4:6">
+      <c r="E54" t="s">
+        <v>286</v>
+      </c>
       <c r="F54" s="1" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="55" spans="4:6">
+      <c r="E55" t="s">
+        <v>495</v>
+      </c>
       <c r="F55" s="1" t="s">
         <v>165</v>
       </c>
@@ -3264,11 +3451,17 @@
       </c>
     </row>
     <row r="57" spans="4:6">
+      <c r="E57" t="s">
+        <v>496</v>
+      </c>
       <c r="F57" s="1" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="58" spans="4:6">
+      <c r="E58" t="s">
+        <v>497</v>
+      </c>
       <c r="F58" s="1" t="s">
         <v>175</v>
       </c>
@@ -3284,11 +3477,17 @@
       </c>
     </row>
     <row r="61" spans="4:6">
+      <c r="E61" t="s">
+        <v>502</v>
+      </c>
       <c r="F61" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="62" spans="4:6">
+      <c r="E62" t="s">
+        <v>501</v>
+      </c>
       <c r="F62" s="1" t="s">
         <v>216</v>
       </c>
@@ -3299,86 +3498,98 @@
       </c>
     </row>
     <row r="64" spans="4:6">
+      <c r="E64" t="s">
+        <v>503</v>
+      </c>
       <c r="F64" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="65" spans="6:6">
+    <row r="65" spans="5:6">
+      <c r="E65" t="s">
+        <v>504</v>
+      </c>
       <c r="F65" s="1" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="66" spans="6:6">
+    <row r="66" spans="5:6">
+      <c r="E66" t="s">
+        <v>505</v>
+      </c>
       <c r="F66" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="67" spans="6:6">
+    <row r="67" spans="5:6">
       <c r="F67" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="68" spans="6:6">
+    <row r="68" spans="5:6">
+      <c r="E68" t="s">
+        <v>506</v>
+      </c>
       <c r="F68" s="1" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="69" spans="6:6">
+    <row r="69" spans="5:6">
       <c r="F69" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="70" spans="6:6">
+    <row r="70" spans="5:6">
       <c r="F70" s="1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="71" spans="6:6">
+    <row r="71" spans="5:6">
       <c r="F71" s="1" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="72" spans="6:6">
+    <row r="72" spans="5:6">
       <c r="F72" s="1" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="73" spans="6:6">
+    <row r="73" spans="5:6">
       <c r="F73" s="1" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="74" spans="6:6">
+    <row r="74" spans="5:6">
       <c r="F74" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="75" spans="6:6">
+    <row r="75" spans="5:6">
       <c r="F75" s="1" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="76" spans="6:6">
+    <row r="76" spans="5:6">
       <c r="F76" s="1" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="77" spans="6:6">
+    <row r="77" spans="5:6">
       <c r="F77" s="1" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="78" spans="6:6">
+    <row r="78" spans="5:6">
       <c r="F78" s="1" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="79" spans="6:6">
+    <row r="79" spans="5:6">
       <c r="F79" s="1" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="80" spans="6:6">
+    <row r="80" spans="5:6">
       <c r="F80" s="1" t="s">
         <v>390</v>
       </c>
@@ -3609,7 +3820,6 @@
       </c>
     </row>
     <row r="129" spans="5:6">
-      <c r="E129" s="2"/>
       <c r="F129" s="4" t="s">
         <v>178</v>
       </c>
@@ -3640,6 +3850,7 @@
       </c>
     </row>
     <row r="135" spans="5:6">
+      <c r="E135" s="2"/>
       <c r="F135" s="4" t="s">
         <v>215</v>
       </c>

--- a/Python.xlsx
+++ b/Python.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C08659F1-A42C-4BA1-A3D1-A4265C64FBE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03ED9393-FD89-4B82-B025-EDDFF3C4BBAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="633" firstSheet="2" activeTab="11" xr2:uid="{570A2267-BD17-432D-9B9F-8D7ACBFD45E8}"/>
+    <workbookView xWindow="2250" yWindow="2250" windowWidth="21600" windowHeight="11385" tabRatio="633" firstSheet="2" activeTab="2" xr2:uid="{570A2267-BD17-432D-9B9F-8D7ACBFD45E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Essential Python" sheetId="10" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="536">
   <si>
     <t>List</t>
   </si>
@@ -130,9 +130,6 @@
   </si>
   <si>
     <t>np.arange(0,55,2)</t>
-  </si>
-  <si>
-    <t>np.random.randint(20,25)</t>
   </si>
   <si>
     <t>[I + 5 for i in A]</t>
@@ -2015,9 +2012,6 @@
     <t>np.random.choice(a , 5 ,replace = False)</t>
   </si>
   <si>
-    <t>np.random.randint(low = 6 , high = 50 , size=(3,4))</t>
-  </si>
-  <si>
     <t>arr = [[1,2],[3,4]]</t>
   </si>
   <si>
@@ -2064,6 +2058,51 @@
   </si>
   <si>
     <t>o = 1/2 * torch.sum(y) #average of y</t>
+  </si>
+  <si>
+    <t>np.random.seed(1)</t>
+  </si>
+  <si>
+    <t>n = 50</t>
+  </si>
+  <si>
+    <t>x = np.random.randn(n)</t>
+  </si>
+  <si>
+    <t>y = x * np.random.randn(n)</t>
+  </si>
+  <si>
+    <t>colors = np.random.randn(n)</t>
+  </si>
+  <si>
+    <t>plt.plot(np.unique(x), np.poly1d(np.polyfit(x,y,1))(np.unique(x)))</t>
+  </si>
+  <si>
+    <t>plt.scatter(x,y, c = colors , alpha=0.5)</t>
+  </si>
+  <si>
+    <t>np.random.random((2,3))</t>
+  </si>
+  <si>
+    <t>np.random.randn(2,3) #random numbers from normal distribution - mean 0 and std 1</t>
+  </si>
+  <si>
+    <t>np.random.randint( 0 , 10 , size = (3,3))</t>
+  </si>
+  <si>
+    <t>np.random.choice(10 , size = (3,3))</t>
+  </si>
+  <si>
+    <t>quantmod</t>
+  </si>
+  <si>
+    <t>tidyquant</t>
+  </si>
+  <si>
+    <t>pandas_datareader</t>
+  </si>
+  <si>
+    <t>mplfinance</t>
   </si>
 </sst>
 </file>
@@ -2525,30 +2564,30 @@
   <sheetData>
     <row r="2" spans="2:5">
       <c r="B2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C2" t="s">
         <v>409</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>410</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>411</v>
-      </c>
-      <c r="E2" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -2556,7 +2595,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -2564,49 +2603,49 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C8" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C9" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C10" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2616,100 +2655,108 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93956EA2-477E-4846-8BA8-A19A7B4BF40D}">
-  <dimension ref="B2:C21"/>
+  <dimension ref="B2:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="54.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="52" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="20.25" thickBot="1">
+    <row r="2" spans="2:5" ht="20.25" thickBot="1">
       <c r="B2" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="15.75" thickTop="1"/>
+    <row r="4" spans="2:5">
+      <c r="B4" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" ht="15.75" thickTop="1"/>
-    <row r="4" spans="2:3">
-      <c r="B4" t="s">
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="2:3">
-      <c r="B7" t="s">
+    <row r="8" spans="2:5">
+      <c r="B8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="2:3">
-      <c r="B8" t="s">
+    <row r="9" spans="2:5">
+      <c r="B9" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="2:3">
-      <c r="B9" t="s">
+    <row r="10" spans="2:5">
+      <c r="B10" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="2:3">
-      <c r="B10" t="s">
+    <row r="11" spans="2:5">
+      <c r="B11" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="2:3">
-      <c r="B11" t="s">
+    <row r="12" spans="2:5">
+      <c r="B12" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="2:3">
-      <c r="B12" t="s">
+    <row r="13" spans="2:5">
+      <c r="B13" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="2:3">
-      <c r="B13" t="s">
+    <row r="14" spans="2:5">
+      <c r="B14" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="2:3">
-      <c r="B14" t="s">
+    <row r="15" spans="2:5">
+      <c r="B15" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="2:3">
-      <c r="B15" t="s">
+    <row r="16" spans="2:5">
+      <c r="B16" t="s">
         <v>110</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3">
-      <c r="B16" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -2729,10 +2776,10 @@
   <sheetData>
     <row r="2" spans="2:4" ht="20.25" thickBot="1">
       <c r="B2" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D2" s="5"/>
     </row>
@@ -2746,7 +2793,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77EF76F1-92CF-42FF-804A-CBD6B162832A}">
   <dimension ref="B2:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
@@ -2758,96 +2805,96 @@
   <sheetData>
     <row r="2" spans="2:3" ht="20.25" thickBot="1">
       <c r="B2" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>425</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="15.75" thickTop="1"/>
     <row r="5" spans="2:3">
       <c r="C5" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="C6" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="C9" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="C12" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="15" spans="2:3">
       <c r="C15" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="16" spans="2:3">
       <c r="C16" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="28" spans="3:3">
       <c r="C28" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
   </sheetData>
@@ -2859,8 +2906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79E9A589-AD7A-4E88-B929-890A4FD0CF44}">
   <dimension ref="B2:F257"/>
   <sheetViews>
-    <sheetView topLeftCell="D37" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68"/>
+    <sheetView topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2874,10 +2921,10 @@
   <sheetData>
     <row r="2" spans="2:6" ht="20.25" thickBot="1">
       <c r="B2" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>0</v>
@@ -2892,7 +2939,7 @@
     <row r="3" spans="2:6" ht="15.75" thickTop="1"/>
     <row r="4" spans="2:6">
       <c r="D4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E4" t="s">
         <v>25</v>
@@ -2903,7 +2950,7 @@
     </row>
     <row r="5" spans="2:6">
       <c r="E5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>4</v>
@@ -2911,7 +2958,7 @@
     </row>
     <row r="6" spans="2:6" ht="60">
       <c r="E6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>26</v>
@@ -2919,21 +2966,21 @@
     </row>
     <row r="7" spans="2:6">
       <c r="F7" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>5</v>
@@ -2941,16 +2988,16 @@
     </row>
     <row r="10" spans="2:6">
       <c r="B10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>6</v>
@@ -2958,13 +3005,13 @@
     </row>
     <row r="11" spans="2:6">
       <c r="C11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>16</v>
@@ -2972,10 +3019,10 @@
     </row>
     <row r="12" spans="2:6">
       <c r="C12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E12" t="s">
         <v>27</v>
@@ -2986,13 +3033,13 @@
     </row>
     <row r="13" spans="2:6">
       <c r="C13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E13" t="s">
-        <v>28</v>
+        <v>530</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>15</v>
@@ -3000,13 +3047,13 @@
     </row>
     <row r="14" spans="2:6">
       <c r="C14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
+        <v>528</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>8</v>
@@ -3014,13 +3061,13 @@
     </row>
     <row r="15" spans="2:6">
       <c r="C15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E15" t="s">
-        <v>31</v>
+        <v>529</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>9</v>
@@ -3028,13 +3075,13 @@
     </row>
     <row r="16" spans="2:6">
       <c r="C16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E16" t="s">
-        <v>32</v>
+        <v>531</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>10</v>
@@ -3042,13 +3089,13 @@
     </row>
     <row r="17" spans="3:6">
       <c r="C17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D17" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E17" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>11</v>
@@ -3056,13 +3103,13 @@
     </row>
     <row r="18" spans="3:6">
       <c r="C18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D18" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E18" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>12</v>
@@ -3070,10 +3117,10 @@
     </row>
     <row r="19" spans="3:6">
       <c r="C19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E19" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>13</v>
@@ -3081,24 +3128,24 @@
     </row>
     <row r="20" spans="3:6">
       <c r="C20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E20" t="s">
         <v>51</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="3:6">
       <c r="C21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E21" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>14</v>
@@ -3106,10 +3153,10 @@
     </row>
     <row r="22" spans="3:6">
       <c r="C22" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E22" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>17</v>
@@ -3117,491 +3164,500 @@
     </row>
     <row r="23" spans="3:6">
       <c r="C23" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E23" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="3:6">
       <c r="C24" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D24" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E24" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="3:6">
       <c r="E25" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="3:6">
       <c r="D26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E26" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="3:6">
       <c r="D27" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="3:6">
       <c r="D28" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="3:6">
       <c r="C29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="3:6">
       <c r="C30" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E30" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="3:6">
       <c r="C31" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E31" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="3:6">
       <c r="C32" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E32" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="3:6">
       <c r="C33" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E33" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="3:6">
       <c r="D34" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E34" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="3:6">
       <c r="D35" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E35" t="s">
-        <v>268</v>
+        <v>47</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="3:6">
       <c r="D36" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E36" t="s">
-        <v>283</v>
+        <v>48</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" spans="3:6">
       <c r="D37" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E37" t="s">
-        <v>285</v>
+        <v>49</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38" spans="3:6">
       <c r="D38" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E38" t="s">
-        <v>493</v>
+        <v>267</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" spans="3:6">
       <c r="D39" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E39" t="s">
-        <v>494</v>
+        <v>282</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40" spans="3:6">
       <c r="D40" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E40" t="s">
-        <v>498</v>
+        <v>284</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41" spans="3:6">
       <c r="E41" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42" spans="3:6">
       <c r="D42" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E42" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43" spans="3:6">
       <c r="D43" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
+      </c>
+      <c r="E43" t="s">
+        <v>497</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="44" spans="3:6">
       <c r="D44" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
+      </c>
+      <c r="E44" t="s">
+        <v>499</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="45" spans="3:6">
       <c r="D45" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
+      </c>
+      <c r="E45" t="s">
+        <v>498</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="46" spans="3:6">
       <c r="D46" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="47" spans="3:6">
       <c r="D47" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="48" spans="3:6">
       <c r="D48" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="49" spans="4:6">
       <c r="D49" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="50" spans="4:6">
       <c r="D50" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="E50" t="s">
-        <v>29</v>
+        <v>233</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="51" spans="4:6">
-      <c r="E51" t="s">
-        <v>38</v>
-      </c>
       <c r="F51" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="52" spans="4:6">
-      <c r="E52" t="s">
-        <v>41</v>
-      </c>
       <c r="F52" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="53" spans="4:6">
       <c r="E53" t="s">
-        <v>284</v>
+        <v>28</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="54" spans="4:6">
       <c r="E54" t="s">
-        <v>286</v>
+        <v>37</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="55" spans="4:6">
       <c r="E55" t="s">
-        <v>495</v>
+        <v>40</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="56" spans="4:6">
+      <c r="E56" t="s">
+        <v>283</v>
+      </c>
       <c r="F56" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="57" spans="4:6">
       <c r="E57" t="s">
-        <v>496</v>
+        <v>285</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="58" spans="4:6">
       <c r="E58" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="59" spans="4:6">
       <c r="F59" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="60" spans="4:6">
+      <c r="E60" t="s">
+        <v>495</v>
+      </c>
       <c r="F60" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="61" spans="4:6">
       <c r="E61" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="62" spans="4:6">
-      <c r="E62" t="s">
-        <v>501</v>
-      </c>
       <c r="F62" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="63" spans="4:6">
       <c r="F63" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="64" spans="4:6">
       <c r="E64" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="65" spans="5:6">
       <c r="E65" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="66" spans="5:6">
-      <c r="E66" t="s">
-        <v>505</v>
-      </c>
       <c r="F66" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="67" spans="5:6">
+      <c r="E67" t="s">
+        <v>502</v>
+      </c>
       <c r="F67" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="68" spans="5:6">
       <c r="E68" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="69" spans="5:6">
+      <c r="E69" t="s">
+        <v>504</v>
+      </c>
       <c r="F69" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="70" spans="5:6">
       <c r="F70" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="71" spans="5:6">
+      <c r="E71" t="s">
+        <v>202</v>
+      </c>
+      <c r="F71" s="1" t="s">
         <v>254</v>
-      </c>
-    </row>
-    <row r="71" spans="5:6">
-      <c r="F71" s="1" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="72" spans="5:6">
       <c r="F72" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="73" spans="5:6">
       <c r="F73" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="74" spans="5:6">
       <c r="F74" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="75" spans="5:6">
       <c r="F75" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="76" spans="5:6">
       <c r="F76" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="77" spans="5:6">
       <c r="F77" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="78" spans="5:6">
       <c r="F78" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="79" spans="5:6">
       <c r="F79" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="80" spans="5:6">
       <c r="F80" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="84" spans="6:6">
       <c r="F84" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="85" spans="6:6">
       <c r="F85" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="86" spans="6:6">
@@ -3641,308 +3697,308 @@
     </row>
     <row r="93" spans="6:6" ht="15.75">
       <c r="F93" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="94" spans="6:6">
       <c r="F94" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="95" spans="6:6">
       <c r="F95" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="96" spans="6:6">
       <c r="F96" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="97" spans="6:6">
       <c r="F97" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="98" spans="6:6">
       <c r="F98" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="99" spans="6:6">
       <c r="F99" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="100" spans="6:6">
       <c r="F100" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="101" spans="6:6">
       <c r="F101" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="102" spans="6:6">
       <c r="F102" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="103" spans="6:6">
       <c r="F103" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="104" spans="6:6">
       <c r="F104" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="105" spans="6:6">
       <c r="F105" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="106" spans="6:6">
       <c r="F106" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="107" spans="6:6">
       <c r="F107" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="108" spans="6:6">
       <c r="F108" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="109" spans="6:6">
       <c r="F109" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="110" spans="6:6" ht="15.75">
       <c r="F110" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="111" spans="6:6" ht="15.75">
       <c r="F111" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="112" spans="6:6" ht="15.75">
       <c r="F112" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="113" spans="6:6">
       <c r="F113" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="114" spans="6:6">
       <c r="F114" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="115" spans="6:6">
       <c r="F115" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="116" spans="6:6">
       <c r="F116" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="117" spans="6:6">
       <c r="F117" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="118" spans="6:6">
       <c r="F118" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="119" spans="6:6">
       <c r="F119" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="120" spans="6:6">
       <c r="F120" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="121" spans="6:6">
       <c r="F121" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="122" spans="6:6">
       <c r="F122" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="123" spans="6:6">
       <c r="F123" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="124" spans="6:6">
       <c r="F124" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="125" spans="6:6">
       <c r="F125" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="126" spans="6:6">
       <c r="F126" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="127" spans="6:6">
       <c r="F127" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="128" spans="6:6">
       <c r="F128" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="129" spans="5:6">
       <c r="F129" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="130" spans="5:6">
       <c r="F130" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="131" spans="5:6">
       <c r="F131" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="132" spans="5:6">
       <c r="F132" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="133" spans="5:6">
       <c r="F133" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="134" spans="5:6" ht="30">
       <c r="F134" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="135" spans="5:6">
+      <c r="F135" s="4" t="s">
         <v>214</v>
-      </c>
-    </row>
-    <row r="135" spans="5:6">
-      <c r="E135" s="2"/>
-      <c r="F135" s="4" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="136" spans="5:6">
       <c r="F136" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="137" spans="5:6">
       <c r="F137" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="138" spans="5:6">
+      <c r="E138" s="2"/>
       <c r="F138" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="139" spans="5:6">
       <c r="F139" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="140" spans="5:6">
       <c r="F140" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="141" spans="5:6">
       <c r="F141" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="142" spans="5:6">
       <c r="F142" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="143" spans="5:6">
       <c r="F143" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="144" spans="5:6">
       <c r="F144" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="145" spans="6:6" ht="30">
       <c r="F145" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="146" spans="6:6">
       <c r="F146" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="147" spans="6:6">
       <c r="F147" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="148" spans="6:6">
       <c r="F148" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="149" spans="6:6">
       <c r="F149" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="150" spans="6:6">
       <c r="F150" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="151" spans="6:6">
       <c r="F151" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="152" spans="6:6">
       <c r="F152" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="153" spans="6:6">
       <c r="F153" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="154" spans="6:6">
@@ -3956,347 +4012,347 @@
     </row>
     <row r="161" spans="6:6">
       <c r="F161" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="162" spans="6:6">
       <c r="F162" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="163" spans="6:6">
       <c r="F163" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="164" spans="6:6">
       <c r="F164" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="165" spans="6:6">
       <c r="F165" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="166" spans="6:6">
       <c r="F166" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="167" spans="6:6">
       <c r="F167" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="169" spans="6:6">
       <c r="F169" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="171" spans="6:6">
       <c r="F171" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="174" spans="6:6">
       <c r="F174" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="175" spans="6:6">
       <c r="F175" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="176" spans="6:6">
       <c r="F176" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="178" spans="6:6">
       <c r="F178" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="179" spans="6:6">
       <c r="F179" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="182" spans="6:6">
       <c r="F182" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="183" spans="6:6">
       <c r="F183" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="185" spans="6:6">
       <c r="F185" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="186" spans="6:6">
       <c r="F186" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="188" spans="6:6">
       <c r="F188" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="189" spans="6:6">
       <c r="F189" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="191" spans="6:6">
       <c r="F191" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="193" spans="6:6">
       <c r="F193" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="194" spans="6:6">
       <c r="F194" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="195" spans="6:6">
       <c r="F195" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="196" spans="6:6">
       <c r="F196" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="198" spans="6:6">
       <c r="F198" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="199" spans="6:6">
       <c r="F199" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="201" spans="6:6">
       <c r="F201" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="202" spans="6:6">
       <c r="F202" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="204" spans="6:6">
       <c r="F204" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="206" spans="6:6">
       <c r="F206" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="208" spans="6:6">
       <c r="F208" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="209" spans="6:6">
       <c r="F209" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="211" spans="6:6">
       <c r="F211" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="212" spans="6:6">
       <c r="F212" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="214" spans="6:6">
       <c r="F214" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="215" spans="6:6" ht="30">
       <c r="F215" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="216" spans="6:6">
       <c r="F216" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="217" spans="6:6">
       <c r="F217" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="219" spans="6:6">
       <c r="F219" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="221" spans="6:6">
       <c r="F221" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="222" spans="6:6">
       <c r="F222" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="223" spans="6:6">
       <c r="F223" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="224" spans="6:6">
       <c r="F224" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="225" spans="6:6">
       <c r="F225" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="226" spans="6:6">
       <c r="F226" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="227" spans="6:6">
       <c r="F227" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="229" spans="6:6">
       <c r="F229" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="230" spans="6:6">
       <c r="F230" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="231" spans="6:6">
       <c r="F231" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="232" spans="6:6">
       <c r="F232" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="233" spans="6:6">
       <c r="F233" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="234" spans="6:6">
       <c r="F234" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="236" spans="6:6">
       <c r="F236" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="238" spans="6:6">
       <c r="F238" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="239" spans="6:6">
       <c r="F239" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="240" spans="6:6">
       <c r="F240" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="242" spans="6:6">
       <c r="F242" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="243" spans="6:6">
       <c r="F243" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="244" spans="6:6">
       <c r="F244" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="246" spans="6:6">
       <c r="F246" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="247" spans="6:6">
       <c r="F247" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="249" spans="6:6">
       <c r="F249" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="250" spans="6:6">
       <c r="F250" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="251" spans="6:6">
       <c r="F251" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="252" spans="6:6">
       <c r="F252" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="254" spans="6:6">
       <c r="F254" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="256" spans="6:6">
       <c r="F256" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="257" spans="6:6">
       <c r="F257" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>
@@ -4307,98 +4363,106 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFB16DD3-E58E-4179-A21F-1F0CFCA23A8F}">
-  <dimension ref="B2:C19"/>
+  <dimension ref="B2:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="73.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.5703125" customWidth="1"/>
+    <col min="3" max="3" width="72.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3">
+    <row r="2" spans="2:5" ht="20.25" thickBot="1">
       <c r="B2" t="s">
+        <v>427</v>
+      </c>
+      <c r="C2" t="s">
+        <v>442</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="15.75" thickTop="1">
+      <c r="B3" t="s">
         <v>428</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C4" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" t="s">
+        <v>430</v>
+      </c>
+      <c r="C5" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="3" spans="2:3">
-      <c r="B3" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3">
-      <c r="B4" t="s">
-        <v>430</v>
-      </c>
-      <c r="C4" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3">
-      <c r="B5" t="s">
+    <row r="6" spans="2:5">
+      <c r="B6" t="s">
         <v>431</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
-      <c r="B6" t="s">
+    <row r="7" spans="2:5">
+      <c r="B7" t="s">
         <v>432</v>
       </c>
-      <c r="C6" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3">
-      <c r="B7" t="s">
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="9" spans="2:3">
-      <c r="B9" t="s">
+    <row r="11" spans="2:5">
+      <c r="B11" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="11" spans="2:3">
-      <c r="B11" t="s">
+    <row r="12" spans="2:5">
+      <c r="B12" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="12" spans="2:3">
-      <c r="B12" t="s">
+    <row r="13" spans="2:5">
+      <c r="B13" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="13" spans="2:3">
-      <c r="B13" t="s">
+    <row r="15" spans="2:5">
+      <c r="B15" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="15" spans="2:3">
-      <c r="B15" t="s">
+    <row r="16" spans="2:5">
+      <c r="B16" t="s">
         <v>438</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3">
-      <c r="B16" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
   </sheetData>
@@ -4422,128 +4486,128 @@
   <sheetData>
     <row r="2" spans="2:3">
       <c r="B2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C7" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C9" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="C10" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="11" spans="2:3">
       <c r="B11" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C11" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C12" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C13" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="15" spans="2:3">
       <c r="B15" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C15" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="16" spans="2:3">
       <c r="B16" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C16" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="28" spans="3:3">
       <c r="C28" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
   </sheetData>
@@ -4567,51 +4631,51 @@
   <sheetData>
     <row r="3" spans="2:4">
       <c r="B3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D3" t="s">
         <v>259</v>
-      </c>
-      <c r="D3" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="18.75" customHeight="1">
       <c r="B6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="31.5">
       <c r="B14" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="30">
       <c r="B15" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="16" spans="2:4">
       <c r="B16" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -4637,16 +4701,16 @@
   <sheetData>
     <row r="2" spans="2:5">
       <c r="B2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D2" t="s">
         <v>257</v>
       </c>
-      <c r="D2" t="s">
-        <v>258</v>
-      </c>
       <c r="E2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -4673,81 +4737,81 @@
   <sheetData>
     <row r="2" spans="2:6">
       <c r="B2" t="s">
+        <v>375</v>
+      </c>
+      <c r="C2" t="s">
         <v>376</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>377</v>
       </c>
-      <c r="D2" t="s">
-        <v>378</v>
-      </c>
       <c r="E2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C4" t="s">
+        <v>381</v>
+      </c>
+      <c r="D4" t="s">
         <v>382</v>
-      </c>
-      <c r="D4" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="20.25" thickBot="1">
       <c r="B11" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C11" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>221</v>
-      </c>
       <c r="E11" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="21" thickTop="1" thickBot="1">
@@ -4755,12 +4819,12 @@
     </row>
     <row r="13" spans="2:6" ht="15.75" thickTop="1">
       <c r="B13" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="15" spans="2:6">
       <c r="B15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="2:3">
@@ -4768,134 +4832,134 @@
     </row>
     <row r="20" spans="2:3">
       <c r="B20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C20" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C21" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C22" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="23" spans="2:3">
       <c r="B23" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C23" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="26" spans="2:3">
       <c r="B26" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27" spans="2:3">
       <c r="B27" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="30" spans="2:3">
       <c r="B30" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="31" spans="2:3">
       <c r="B31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="32" spans="2:3">
       <c r="B32" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="62" spans="2:2">
@@ -4993,13 +5057,13 @@
   <sheetData>
     <row r="2" spans="2:5" ht="20.25" thickBot="1">
       <c r="B2" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>407</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>408</v>
       </c>
       <c r="E2" s="5"/>
     </row>
@@ -5011,10 +5075,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65408CBA-F719-4384-9761-BC7C35558BAF}">
-  <dimension ref="B2:E29"/>
+  <dimension ref="B2:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="D34" sqref="D34:D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5027,30 +5091,30 @@
   <sheetData>
     <row r="2" spans="2:5" ht="20.25" thickBot="1">
       <c r="B2" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>223</v>
-      </c>
       <c r="D2" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>305</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="15.75" thickTop="1"/>
     <row r="4" spans="2:5">
       <c r="D4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
@@ -5061,15 +5125,15 @@
     </row>
     <row r="6" spans="2:5">
       <c r="D6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E7" t="s">
         <v>25</v>
@@ -5077,193 +5141,243 @@
     </row>
     <row r="8" spans="2:5">
       <c r="B8" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="2:5">
       <c r="D9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="14" spans="2:5">
       <c r="B14" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D14" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E14" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="15" spans="2:5">
       <c r="B15" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="16" spans="2:5">
       <c r="B16" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D16" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="17" spans="2:5">
       <c r="B17" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E17" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="18" spans="2:5">
       <c r="E18" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="19" spans="2:5">
       <c r="B19" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D19" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="20" spans="2:5">
       <c r="D20" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E20" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="21" spans="2:5">
       <c r="B21" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D21" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E21" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="22" spans="2:5">
       <c r="B22" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D22" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E22" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="23" spans="2:5">
       <c r="B23" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="24" spans="2:5">
       <c r="D24" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E24" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="25" spans="2:5">
       <c r="B25" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D25" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E25" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="26" spans="2:5">
       <c r="B26" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D26" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="27" spans="2:5">
       <c r="B27" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E27" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="28" spans="2:5">
       <c r="B28" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D28" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="29" spans="2:5">
       <c r="D29" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E29" t="s">
-        <v>317</v>
+        <v>316</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4">
+      <c r="D34" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4">
+      <c r="D35" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="37" spans="4:4">
+      <c r="D37" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="38" spans="4:4">
+      <c r="D38" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="39" spans="4:4">
+      <c r="D39" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="40" spans="4:4">
+      <c r="D40" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="42" spans="4:4">
+      <c r="D42" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="43" spans="4:4">
+      <c r="D43" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="45" spans="4:4">
+      <c r="D45" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="46" spans="4:4">
+      <c r="D46" t="s">
+        <v>298</v>
       </c>
     </row>
   </sheetData>

--- a/Python.xlsx
+++ b/Python.xlsx
@@ -1,30 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03ED9393-FD89-4B82-B025-EDDFF3C4BBAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{983DDF0B-419B-42F1-BB44-0980797196A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="2250" windowWidth="21600" windowHeight="11385" tabRatio="633" firstSheet="2" activeTab="2" xr2:uid="{570A2267-BD17-432D-9B9F-8D7ACBFD45E8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="633" activeTab="1" xr2:uid="{570A2267-BD17-432D-9B9F-8D7ACBFD45E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Essential Python" sheetId="10" r:id="rId1"/>
     <sheet name="Python Programming" sheetId="1" r:id="rId2"/>
-    <sheet name="R" sheetId="11" r:id="rId3"/>
-    <sheet name="Web Scraping" sheetId="12" r:id="rId4"/>
-    <sheet name="Data Cleaning" sheetId="6" r:id="rId5"/>
-    <sheet name="Scientific Computing" sheetId="7" r:id="rId6"/>
-    <sheet name="Visualisation" sheetId="3" r:id="rId7"/>
-    <sheet name="Networking" sheetId="9" r:id="rId8"/>
-    <sheet name="Machine Learning" sheetId="2" r:id="rId9"/>
-    <sheet name="Fintech" sheetId="4" r:id="rId10"/>
-    <sheet name="NLP" sheetId="5" r:id="rId11"/>
-    <sheet name="Deep Learning" sheetId="8" r:id="rId12"/>
+    <sheet name="Web Scraping" sheetId="12" r:id="rId3"/>
+    <sheet name="Data Cleaning" sheetId="6" r:id="rId4"/>
+    <sheet name="Scientific Computing" sheetId="7" r:id="rId5"/>
+    <sheet name="Visualisation" sheetId="3" r:id="rId6"/>
+    <sheet name="Networking" sheetId="9" r:id="rId7"/>
+    <sheet name="Machine Learning" sheetId="2" r:id="rId8"/>
+    <sheet name="Fintech" sheetId="4" r:id="rId9"/>
+    <sheet name="NLP" sheetId="5" r:id="rId10"/>
+    <sheet name="Deep Learning" sheetId="8" r:id="rId11"/>
+    <sheet name="R" sheetId="11" r:id="rId12"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="557">
   <si>
     <t>List</t>
   </si>
@@ -2104,6 +2104,69 @@
   <si>
     <t>mplfinance</t>
   </si>
+  <si>
+    <t>L = [1,2,3]</t>
+  </si>
+  <si>
+    <t>L.append(5)</t>
+  </si>
+  <si>
+    <t>L1.extend([2,3])</t>
+  </si>
+  <si>
+    <t>del(L[1])</t>
+  </si>
+  <si>
+    <t>from the end of L</t>
+  </si>
+  <si>
+    <t>L.remove(2)</t>
+  </si>
+  <si>
+    <t>L.pop()</t>
+  </si>
+  <si>
+    <t>list(s)</t>
+  </si>
+  <si>
+    <t>s = 'I &lt;3 CS'</t>
+  </si>
+  <si>
+    <t>s.split('&lt;')</t>
+  </si>
+  <si>
+    <t>L = ['a','b','c']</t>
+  </si>
+  <si>
+    <t>sorted(L)</t>
+  </si>
+  <si>
+    <t>returns the sorted version of L but doesn't change L</t>
+  </si>
+  <si>
+    <t>L.sort()</t>
+  </si>
+  <si>
+    <t>L.reverse()</t>
+  </si>
+  <si>
+    <t>changes L</t>
+  </si>
+  <si>
+    <t>'.join(L)</t>
+  </si>
+  <si>
+    <t>_'.join(L)</t>
+  </si>
+  <si>
+    <t>L.insert(0,100)</t>
+  </si>
+  <si>
+    <t>L.count(1)</t>
+  </si>
+  <si>
+    <t>L.index(1)</t>
+  </si>
 </sst>
 </file>
 
@@ -2211,7 +2274,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2233,6 +2296,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
@@ -2654,117 +2718,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93956EA2-477E-4846-8BA8-A19A7B4BF40D}">
-  <dimension ref="B2:E21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="54.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="52" customWidth="1"/>
-    <col min="4" max="4" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:5" ht="20.25" thickBot="1">
-      <c r="B2" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>467</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>534</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" ht="15.75" thickTop="1"/>
-    <row r="4" spans="2:5">
-      <c r="B4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5">
-      <c r="B7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
-      <c r="B8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="B9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5">
-      <c r="B10" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="B11" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="B12" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5">
-      <c r="B13" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5">
-      <c r="B14" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5">
-      <c r="B15" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5">
-      <c r="B16" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" t="s">
-        <v>114</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E96AF171-92C7-4E76-8196-8C5772FF6093}">
   <dimension ref="B2:D3"/>
   <sheetViews>
@@ -2789,7 +2742,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77EF76F1-92CF-42FF-804A-CBD6B162832A}">
   <dimension ref="B2:C32"/>
   <sheetViews>
@@ -2902,12 +2855,121 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFB16DD3-E58E-4179-A21F-1F0CFCA23A8F}">
+  <dimension ref="B2:E19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21:B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="73.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="72.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" ht="20.25" thickBot="1">
+      <c r="B2" t="s">
+        <v>427</v>
+      </c>
+      <c r="C2" t="s">
+        <v>442</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="15.75" thickTop="1">
+      <c r="B3" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C4" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" t="s">
+        <v>430</v>
+      </c>
+      <c r="C5" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" t="s">
+        <v>431</v>
+      </c>
+      <c r="C6" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>440</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79E9A589-AD7A-4E88-B929-890A4FD0CF44}">
   <dimension ref="B2:F257"/>
   <sheetViews>
-    <sheetView topLeftCell="D7" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="B73" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3555,7 +3617,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="65" spans="5:6">
+    <row r="65" spans="4:6">
       <c r="E65" t="s">
         <v>500</v>
       </c>
@@ -3563,12 +3625,12 @@
         <v>243</v>
       </c>
     </row>
-    <row r="66" spans="5:6">
+    <row r="66" spans="4:6">
       <c r="F66" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="67" spans="5:6">
+    <row r="67" spans="4:6">
       <c r="E67" t="s">
         <v>502</v>
       </c>
@@ -3576,7 +3638,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="68" spans="5:6">
+    <row r="68" spans="4:6">
       <c r="E68" t="s">
         <v>503</v>
       </c>
@@ -3584,7 +3646,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="69" spans="5:6">
+    <row r="69" spans="4:6">
       <c r="E69" t="s">
         <v>504</v>
       </c>
@@ -3592,12 +3654,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="70" spans="5:6">
+    <row r="70" spans="4:6">
       <c r="F70" s="1" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="71" spans="5:6">
+    <row r="71" spans="4:6">
       <c r="E71" t="s">
         <v>202</v>
       </c>
@@ -3605,112 +3667,187 @@
         <v>254</v>
       </c>
     </row>
-    <row r="72" spans="5:6">
+    <row r="72" spans="4:6">
       <c r="F72" s="1" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="73" spans="5:6">
+    <row r="73" spans="4:6">
+      <c r="D73" t="s">
+        <v>536</v>
+      </c>
       <c r="F73" s="1" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="74" spans="5:6">
+    <row r="74" spans="4:6">
+      <c r="D74" t="s">
+        <v>537</v>
+      </c>
       <c r="F74" s="1" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="75" spans="5:6">
+    <row r="75" spans="4:6">
+      <c r="D75" t="s">
+        <v>538</v>
+      </c>
       <c r="F75" s="1" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="76" spans="5:6">
+    <row r="76" spans="4:6">
+      <c r="D76" t="s">
+        <v>539</v>
+      </c>
       <c r="F76" s="1" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="77" spans="5:6">
+    <row r="77" spans="4:6">
+      <c r="D77" t="s">
+        <v>542</v>
+      </c>
+      <c r="E77" t="s">
+        <v>540</v>
+      </c>
       <c r="F77" s="1" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="78" spans="5:6">
+    <row r="78" spans="4:6">
+      <c r="D78" t="s">
+        <v>541</v>
+      </c>
       <c r="F78" s="1" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="79" spans="5:6">
+    <row r="79" spans="4:6">
+      <c r="D79" t="s">
+        <v>544</v>
+      </c>
       <c r="F79" s="1" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="80" spans="5:6">
+    <row r="80" spans="4:6">
+      <c r="D80" t="s">
+        <v>543</v>
+      </c>
       <c r="F80" s="1" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="84" spans="6:6">
+    <row r="81" spans="4:6">
+      <c r="D81" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="82" spans="4:6">
+      <c r="D82" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="83" spans="4:6">
+      <c r="D83" s="9" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="84" spans="4:6">
+      <c r="D84" s="9" t="s">
+        <v>553</v>
+      </c>
       <c r="F84" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="85" spans="6:6">
+    <row r="85" spans="4:6">
+      <c r="D85" t="s">
+        <v>536</v>
+      </c>
       <c r="F85" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="86" spans="6:6">
+    <row r="86" spans="4:6">
+      <c r="D86" t="s">
+        <v>547</v>
+      </c>
+      <c r="E86" t="s">
+        <v>548</v>
+      </c>
       <c r="F86" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="87" spans="6:6">
+    <row r="87" spans="4:6">
+      <c r="D87" t="s">
+        <v>549</v>
+      </c>
+      <c r="E87" t="s">
+        <v>551</v>
+      </c>
       <c r="F87" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="88" spans="6:6">
+    <row r="88" spans="4:6">
+      <c r="D88" t="s">
+        <v>550</v>
+      </c>
+      <c r="E88" t="s">
+        <v>551</v>
+      </c>
       <c r="F88" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="89" spans="6:6">
+    <row r="89" spans="4:6">
+      <c r="D89" t="s">
+        <v>554</v>
+      </c>
       <c r="F89" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="90" spans="6:6">
+    <row r="90" spans="4:6">
+      <c r="D90" t="s">
+        <v>555</v>
+      </c>
       <c r="F90" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="91" spans="6:6">
+    <row r="91" spans="4:6">
+      <c r="D91" t="s">
+        <v>556</v>
+      </c>
       <c r="F91" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="92" spans="6:6">
+    <row r="92" spans="4:6">
       <c r="F92" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="93" spans="6:6" ht="15.75">
+    <row r="93" spans="4:6" ht="15.75">
       <c r="F93" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="94" spans="6:6">
+    <row r="94" spans="4:6">
       <c r="F94" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="95" spans="6:6">
+    <row r="95" spans="4:6">
       <c r="F95" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="96" spans="6:6">
+    <row r="96" spans="4:6">
       <c r="F96" s="1" t="s">
         <v>74</v>
       </c>
@@ -4362,115 +4499,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFB16DD3-E58E-4179-A21F-1F0CFCA23A8F}">
-  <dimension ref="B2:E19"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="73.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="72.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:5" ht="20.25" thickBot="1">
-      <c r="B2" t="s">
-        <v>427</v>
-      </c>
-      <c r="C2" t="s">
-        <v>442</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>532</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" ht="15.75" thickTop="1">
-      <c r="B3" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5">
-      <c r="B4" t="s">
-        <v>429</v>
-      </c>
-      <c r="C4" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5">
-      <c r="B5" t="s">
-        <v>430</v>
-      </c>
-      <c r="C5" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5">
-      <c r="B6" t="s">
-        <v>431</v>
-      </c>
-      <c r="C6" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5">
-      <c r="B7" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="B9" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="B11" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="B12" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5">
-      <c r="B13" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5">
-      <c r="B15" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5">
-      <c r="B16" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" t="s">
-        <v>440</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05039250-D920-4BFE-812D-BDC7C0931859}">
   <dimension ref="B2:C28"/>
   <sheetViews>
@@ -4615,7 +4643,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3855EA0-DC9D-4DA0-A79D-468A9B802C64}">
   <dimension ref="B3:D17"/>
   <sheetViews>
@@ -4684,7 +4712,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB68017E-54A1-479D-B0B2-E8E6FCCA6356}">
   <dimension ref="B2:E2"/>
   <sheetViews>
@@ -4718,7 +4746,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8807BCAA-CD11-417E-B2D4-30513A7D4983}">
   <dimension ref="B2:F133"/>
   <sheetViews>
@@ -5045,7 +5073,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B19F124-6FB6-4AB6-87E3-71D446D765D9}">
   <dimension ref="B2:E3"/>
   <sheetViews>
@@ -5073,7 +5101,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65408CBA-F719-4384-9761-BC7C35558BAF}">
   <dimension ref="B2:E46"/>
   <sheetViews>
@@ -5384,4 +5412,115 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93956EA2-477E-4846-8BA8-A19A7B4BF40D}">
+  <dimension ref="B2:E21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="54.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" ht="20.25" thickBot="1">
+      <c r="B2" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="15.75" thickTop="1"/>
+    <row r="4" spans="2:5">
+      <c r="B4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Python.xlsx
+++ b/Python.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{983DDF0B-419B-42F1-BB44-0980797196A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6391B2F-1880-4AC7-AFAD-064B45967EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="633" activeTab="1" xr2:uid="{570A2267-BD17-432D-9B9F-8D7ACBFD45E8}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="561">
   <si>
     <t>List</t>
   </si>
@@ -2166,13 +2166,290 @@
   </si>
   <si>
     <t>L.index(1)</t>
+  </si>
+  <si>
+    <t>dictionary.get()</t>
+  </si>
+  <si>
+    <r>
+      <t>hand = {</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>'a'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>'q'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>'l'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>'m'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>'u'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>'i'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>(hand.get(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">'g' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <t>dictionary.copy()</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2242,6 +2519,30 @@
       <color rgb="FF202124"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11.3"/>
+      <color rgb="FFA9B7C6"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11.3"/>
+      <color rgb="FF6A8759"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11.3"/>
+      <color rgb="FF6897BB"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11.3"/>
+      <color rgb="FFCC7832"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2968,8 +3269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79E9A589-AD7A-4E88-B929-890A4FD0CF44}">
   <dimension ref="B2:F257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B73" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D92" sqref="D92"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3504,7 +3805,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="49" spans="4:6">
+    <row r="49" spans="3:6">
       <c r="D49" s="3" t="s">
         <v>185</v>
       </c>
@@ -3512,7 +3813,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="50" spans="4:6">
+    <row r="50" spans="3:6">
       <c r="D50" s="3" t="s">
         <v>233</v>
       </c>
@@ -3520,17 +3821,29 @@
         <v>150</v>
       </c>
     </row>
-    <row r="51" spans="4:6">
+    <row r="51" spans="3:6">
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
       <c r="F51" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="52" spans="4:6">
+    <row r="52" spans="3:6">
+      <c r="C52" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>558</v>
+      </c>
       <c r="F52" s="4" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="53" spans="4:6">
+    <row r="53" spans="3:6">
+      <c r="C53" s="3"/>
+      <c r="D53" s="3" t="s">
+        <v>559</v>
+      </c>
       <c r="E53" t="s">
         <v>28</v>
       </c>
@@ -3538,7 +3851,11 @@
         <v>159</v>
       </c>
     </row>
-    <row r="54" spans="4:6">
+    <row r="54" spans="3:6">
+      <c r="C54" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="D54" s="3"/>
       <c r="E54" t="s">
         <v>37</v>
       </c>
@@ -3546,7 +3863,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="55" spans="4:6">
+    <row r="55" spans="3:6">
       <c r="E55" t="s">
         <v>40</v>
       </c>
@@ -3554,7 +3871,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="56" spans="4:6">
+    <row r="56" spans="3:6">
       <c r="E56" t="s">
         <v>283</v>
       </c>
@@ -3562,7 +3879,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="57" spans="4:6">
+    <row r="57" spans="3:6">
       <c r="E57" t="s">
         <v>285</v>
       </c>
@@ -3570,7 +3887,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="58" spans="4:6">
+    <row r="58" spans="3:6">
       <c r="E58" t="s">
         <v>494</v>
       </c>
@@ -3578,12 +3895,12 @@
         <v>174</v>
       </c>
     </row>
-    <row r="59" spans="4:6">
+    <row r="59" spans="3:6">
       <c r="F59" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="60" spans="4:6">
+    <row r="60" spans="3:6">
       <c r="E60" t="s">
         <v>495</v>
       </c>
@@ -3591,7 +3908,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="61" spans="4:6">
+    <row r="61" spans="3:6">
       <c r="E61" t="s">
         <v>496</v>
       </c>
@@ -3599,17 +3916,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="4:6">
+    <row r="62" spans="3:6">
       <c r="F62" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="63" spans="4:6">
+    <row r="63" spans="3:6">
       <c r="F63" s="1" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="64" spans="4:6">
+    <row r="64" spans="3:6">
       <c r="E64" t="s">
         <v>501</v>
       </c>
